--- a/teaching/traditional_assets/database/data/bulgaria/bulgaria_chemical_specialty.xlsx
+++ b/teaching/traditional_assets/database/data/bulgaria/bulgaria_chemical_specialty.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="bul_3nb" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -591,115 +593,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0501</v>
+        <v>-0.0557</v>
+      </c>
+      <c r="E2">
+        <v>0.787</v>
       </c>
       <c r="G2">
-        <v>-0.03295774647887324</v>
+        <v>-0.005052005943536404</v>
       </c>
       <c r="H2">
-        <v>-0.03393085787451985</v>
+        <v>-0.005052005943536404</v>
       </c>
       <c r="I2">
-        <v>-0.03514724711907811</v>
+        <v>0.04955423476968797</v>
       </c>
       <c r="J2">
-        <v>-0.03514724711907811</v>
+        <v>0.04955423476968797</v>
       </c>
       <c r="K2">
-        <v>-4.1</v>
+        <v>5.58</v>
       </c>
       <c r="L2">
-        <v>-0.02624839948783611</v>
+        <v>0.04145616641901932</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.380952380952381e-05</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>0.0001792114695340502</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.380952380952381e-05</v>
       </c>
       <c r="R2">
-        <v>-0</v>
+        <v>0.0001792114695340502</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>0.491</v>
+        <v>12.2</v>
       </c>
       <c r="V2">
-        <v>0.01933070866141732</v>
+        <v>0.2904761904761904</v>
       </c>
       <c r="W2">
-        <v>-0.07550644567219153</v>
+        <v>0.1205183585313175</v>
       </c>
       <c r="X2">
-        <v>0.1243960039741042</v>
+        <v>0.07647180936720611</v>
       </c>
       <c r="Y2">
-        <v>-0.1999024496462957</v>
+        <v>0.0440465491641114</v>
       </c>
       <c r="Z2">
-        <v>3.092456939219956</v>
+        <v>2.231839360626109</v>
       </c>
       <c r="AA2">
-        <v>-0.1086913482478717</v>
+        <v>0.1105970916446965</v>
       </c>
       <c r="AB2">
-        <v>0.09682343344844098</v>
+        <v>0.07296169052578622</v>
       </c>
       <c r="AC2">
-        <v>-0.2055147816963127</v>
+        <v>0.03763540111891027</v>
       </c>
       <c r="AD2">
-        <v>14.5</v>
+        <v>3.98</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>14.5</v>
+        <v>3.98</v>
       </c>
       <c r="AG2">
-        <v>14.009</v>
+        <v>-8.219999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.3634085213032582</v>
+        <v>0.08655937364071335</v>
       </c>
       <c r="AI2">
-        <v>0.2384868421052632</v>
+        <v>0.06635545181727243</v>
       </c>
       <c r="AJ2">
-        <v>0.3554771752645335</v>
+        <v>-0.2433392539964476</v>
       </c>
       <c r="AK2">
-        <v>0.2322870550000829</v>
+        <v>-0.1720385098367518</v>
       </c>
       <c r="AL2">
-        <v>0.343</v>
+        <v>0.323</v>
       </c>
       <c r="AM2">
-        <v>0.343</v>
+        <v>0.323</v>
       </c>
       <c r="AN2">
-        <v>22.2052067381317</v>
+        <v>0.3061538461538462</v>
       </c>
       <c r="AO2">
-        <v>-16.00583090379009</v>
+        <v>20.65015479876161</v>
       </c>
       <c r="AP2">
-        <v>21.45329249617152</v>
+        <v>-0.6323076923076922</v>
       </c>
       <c r="AQ2">
-        <v>-16.00583090379009</v>
+        <v>20.65015479876161</v>
       </c>
     </row>
     <row r="3">
@@ -719,115 +727,8839 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0501</v>
+        <v>-0.0557</v>
+      </c>
+      <c r="E3">
+        <v>0.787</v>
       </c>
       <c r="G3">
-        <v>-0.03295774647887324</v>
+        <v>-0.005052005943536404</v>
       </c>
       <c r="H3">
-        <v>-0.03393085787451985</v>
+        <v>-0.005052005943536404</v>
       </c>
       <c r="I3">
-        <v>-0.03514724711907811</v>
+        <v>0.04955423476968797</v>
       </c>
       <c r="J3">
-        <v>-0.03514724711907811</v>
+        <v>0.04955423476968797</v>
       </c>
       <c r="K3">
-        <v>-4.1</v>
+        <v>5.58</v>
       </c>
       <c r="L3">
-        <v>-0.02624839948783611</v>
+        <v>0.04145616641901932</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>2.380952380952381e-05</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0001792114695340502</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>0.001</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>2.380952380952381e-05</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0001792114695340502</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>0.491</v>
+        <v>12.2</v>
       </c>
       <c r="V3">
-        <v>0.01933070866141732</v>
+        <v>0.2904761904761904</v>
       </c>
       <c r="W3">
-        <v>-0.07550644567219153</v>
+        <v>0.1205183585313175</v>
       </c>
       <c r="X3">
-        <v>0.1243960039741042</v>
+        <v>0.07647180936720611</v>
       </c>
       <c r="Y3">
-        <v>-0.1999024496462957</v>
+        <v>0.0440465491641114</v>
       </c>
       <c r="Z3">
-        <v>3.092456939219956</v>
+        <v>2.231839360626109</v>
       </c>
       <c r="AA3">
-        <v>-0.1086913482478717</v>
+        <v>0.1105970916446965</v>
       </c>
       <c r="AB3">
-        <v>0.09682343344844098</v>
+        <v>0.07296169052578622</v>
       </c>
       <c r="AC3">
-        <v>-0.2055147816963127</v>
+        <v>0.03763540111891027</v>
       </c>
       <c r="AD3">
-        <v>14.5</v>
+        <v>3.98</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.5</v>
+        <v>3.98</v>
       </c>
       <c r="AG3">
-        <v>14.009</v>
+        <v>-8.219999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.3634085213032582</v>
+        <v>0.08655937364071335</v>
       </c>
       <c r="AI3">
-        <v>0.2384868421052632</v>
+        <v>0.06635545181727243</v>
       </c>
       <c r="AJ3">
-        <v>0.3554771752645335</v>
+        <v>-0.2433392539964476</v>
       </c>
       <c r="AK3">
-        <v>0.2322870550000829</v>
+        <v>-0.1720385098367518</v>
       </c>
       <c r="AL3">
-        <v>0.343</v>
+        <v>0.323</v>
       </c>
       <c r="AM3">
-        <v>0.343</v>
+        <v>0.323</v>
       </c>
       <c r="AN3">
-        <v>22.2052067381317</v>
+        <v>0.3061538461538462</v>
       </c>
       <c r="AO3">
-        <v>-16.00583090379009</v>
+        <v>20.65015479876161</v>
       </c>
       <c r="AP3">
-        <v>21.45329249617152</v>
+        <v>-0.6323076923076922</v>
       </c>
       <c r="AQ3">
-        <v>-16.00583090379009</v>
+        <v>20.65015479876161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Neochim AD (BUL:3NB)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BUL:3NB</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Chemical (Specialty)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.08655937364071339</v>
+      </c>
+      <c r="F2">
+        <v>0.62</v>
+      </c>
+      <c r="G2">
+        <v>42</v>
+      </c>
+      <c r="H2">
+        <v>17.8049596371167</v>
+      </c>
+      <c r="I2">
+        <v>33.78</v>
+      </c>
+      <c r="J2">
+        <v>34.1125596371167</v>
+      </c>
+      <c r="K2">
+        <v>3.98</v>
+      </c>
+      <c r="L2">
+        <v>28.5076</v>
+      </c>
+      <c r="M2">
+        <v>0.0729616905257862</v>
+      </c>
+      <c r="N2">
+        <v>0.0706294247077893</v>
+      </c>
+      <c r="O2">
+        <v>0.0359202354153249</v>
+      </c>
+      <c r="P2">
+        <v>0.01458</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.0764718093672061</v>
+      </c>
+      <c r="T2">
+        <v>0.16207848607313</v>
+      </c>
+      <c r="U2">
+        <v>1.07191939222022</v>
+      </c>
+      <c r="V2">
+        <v>2.43802010811676</v>
+      </c>
+      <c r="W2">
+        <v>13.79315959755328</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>42</v>
+      </c>
+      <c r="AB2">
+        <v>0.06266498195174562</v>
+      </c>
+      <c r="AC2">
+        <v>0.03991137268369437</v>
+      </c>
+      <c r="AD2">
+        <v>0.1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>13</v>
+      </c>
+      <c r="AH2">
+        <v>6.63</v>
+      </c>
+      <c r="AI2">
+        <v>2.670000000000001</v>
+      </c>
+      <c r="AJ2">
+        <v>3.98</v>
+      </c>
+      <c r="AK2">
+        <v>3.98</v>
+      </c>
+      <c r="AL2">
+        <v>0.323</v>
+      </c>
+      <c r="AM2">
+        <v>3.98</v>
+      </c>
+      <c r="AN2">
+        <v>12.2</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07119320331320822</v>
+      </c>
+      <c r="C2">
+        <v>46.23157130820546</v>
+      </c>
+      <c r="D2">
+        <v>34.03157130820546</v>
+      </c>
+      <c r="E2">
+        <v>-3.98</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>12.2</v>
+      </c>
+      <c r="H2">
+        <v>42</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>6.63</v>
+      </c>
+      <c r="L2">
+        <v>6.37</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>6.37</v>
+      </c>
+      <c r="O2">
+        <v>0.637</v>
+      </c>
+      <c r="P2">
+        <v>5.733000000000001</v>
+      </c>
+      <c r="Q2">
+        <v>12.363</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07119320331320822</v>
+      </c>
+      <c r="T2">
+        <v>0.9876840523287519</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.1</v>
+      </c>
+      <c r="W2">
+        <v>0.01458</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.071184110109895</v>
+      </c>
+      <c r="C3">
+        <v>45.77307452021356</v>
+      </c>
+      <c r="D3">
+        <v>34.03287452021356</v>
+      </c>
+      <c r="E3">
+        <v>-3.5202</v>
+      </c>
+      <c r="F3">
+        <v>0.4598</v>
+      </c>
+      <c r="G3">
+        <v>12.2</v>
+      </c>
+      <c r="H3">
+        <v>42</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>6.63</v>
+      </c>
+      <c r="L3">
+        <v>6.37</v>
+      </c>
+      <c r="M3">
+        <v>0.00744876</v>
+      </c>
+      <c r="N3">
+        <v>6.36255124</v>
+      </c>
+      <c r="O3">
+        <v>0.6362551240000001</v>
+      </c>
+      <c r="P3">
+        <v>5.726296116</v>
+      </c>
+      <c r="Q3">
+        <v>12.356296116</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07175586879787374</v>
+      </c>
+      <c r="T3">
+        <v>0.9966629982590133</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.1</v>
+      </c>
+      <c r="W3">
+        <v>0.01458</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>855.1758950483035</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.0711750169065818</v>
+      </c>
+      <c r="C4">
+        <v>45.31457783203641</v>
+      </c>
+      <c r="D4">
+        <v>34.03417783203641</v>
+      </c>
+      <c r="E4">
+        <v>-3.0604</v>
+      </c>
+      <c r="F4">
+        <v>0.9196</v>
+      </c>
+      <c r="G4">
+        <v>12.2</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>6.63</v>
+      </c>
+      <c r="L4">
+        <v>6.37</v>
+      </c>
+      <c r="M4">
+        <v>0.01489752</v>
+      </c>
+      <c r="N4">
+        <v>6.35510248</v>
+      </c>
+      <c r="O4">
+        <v>0.6355102480000001</v>
+      </c>
+      <c r="P4">
+        <v>5.719592232</v>
+      </c>
+      <c r="Q4">
+        <v>12.349592232</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.07233001725161409</v>
+      </c>
+      <c r="T4">
+        <v>1.00582518798377</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.1</v>
+      </c>
+      <c r="W4">
+        <v>0.01458</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>427.5879475241517</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07116592370326859</v>
+      </c>
+      <c r="C5">
+        <v>44.85608124368549</v>
+      </c>
+      <c r="D5">
+        <v>34.03548124368548</v>
+      </c>
+      <c r="E5">
+        <v>-2.6006</v>
+      </c>
+      <c r="F5">
+        <v>1.3794</v>
+      </c>
+      <c r="G5">
+        <v>12.2</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>6.63</v>
+      </c>
+      <c r="L5">
+        <v>6.37</v>
+      </c>
+      <c r="M5">
+        <v>0.02234628</v>
+      </c>
+      <c r="N5">
+        <v>6.34765372</v>
+      </c>
+      <c r="O5">
+        <v>0.634765372</v>
+      </c>
+      <c r="P5">
+        <v>5.712888348</v>
+      </c>
+      <c r="Q5">
+        <v>12.342888348</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07291600381780267</v>
+      </c>
+      <c r="T5">
+        <v>1.015176288836872</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.1</v>
+      </c>
+      <c r="W5">
+        <v>0.01458</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>285.0586316827678</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.0711568304999554</v>
+      </c>
+      <c r="C6">
+        <v>44.39758475517227</v>
+      </c>
+      <c r="D6">
+        <v>34.03678475517226</v>
+      </c>
+      <c r="E6">
+        <v>-2.1408</v>
+      </c>
+      <c r="F6">
+        <v>1.8392</v>
+      </c>
+      <c r="G6">
+        <v>12.2</v>
+      </c>
+      <c r="H6">
+        <v>42</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>6.63</v>
+      </c>
+      <c r="L6">
+        <v>6.37</v>
+      </c>
+      <c r="M6">
+        <v>0.02979504</v>
+      </c>
+      <c r="N6">
+        <v>6.34020496</v>
+      </c>
+      <c r="O6">
+        <v>0.6340204960000001</v>
+      </c>
+      <c r="P6">
+        <v>5.706184464000001</v>
+      </c>
+      <c r="Q6">
+        <v>12.336184464</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07351419843745353</v>
+      </c>
+      <c r="T6">
+        <v>1.02472220429108</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.1</v>
+      </c>
+      <c r="W6">
+        <v>0.01458</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>213.7939737620759</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07114773729664217</v>
+      </c>
+      <c r="C7">
+        <v>43.93908836650821</v>
+      </c>
+      <c r="D7">
+        <v>34.03808836650821</v>
+      </c>
+      <c r="E7">
+        <v>-1.681</v>
+      </c>
+      <c r="F7">
+        <v>2.299</v>
+      </c>
+      <c r="G7">
+        <v>12.2</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>6.63</v>
+      </c>
+      <c r="L7">
+        <v>6.37</v>
+      </c>
+      <c r="M7">
+        <v>0.03724379999999999</v>
+      </c>
+      <c r="N7">
+        <v>6.3327562</v>
+      </c>
+      <c r="O7">
+        <v>0.63327562</v>
+      </c>
+      <c r="P7">
+        <v>5.69948058</v>
+      </c>
+      <c r="Q7">
+        <v>12.32948058</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.0741249866280444</v>
+      </c>
+      <c r="T7">
+        <v>1.03446908638643</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.1</v>
+      </c>
+      <c r="W7">
+        <v>0.01458</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>171.0351790096607</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07113864409332897</v>
+      </c>
+      <c r="C8">
+        <v>43.48059207770481</v>
+      </c>
+      <c r="D8">
+        <v>34.0393920777048</v>
+      </c>
+      <c r="E8">
+        <v>-1.2212</v>
+      </c>
+      <c r="F8">
+        <v>2.7588</v>
+      </c>
+      <c r="G8">
+        <v>12.2</v>
+      </c>
+      <c r="H8">
+        <v>42</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>6.63</v>
+      </c>
+      <c r="L8">
+        <v>6.37</v>
+      </c>
+      <c r="M8">
+        <v>0.04469256</v>
+      </c>
+      <c r="N8">
+        <v>6.32530744</v>
+      </c>
+      <c r="O8">
+        <v>0.6325307440000001</v>
+      </c>
+      <c r="P8">
+        <v>5.692776696</v>
+      </c>
+      <c r="Q8">
+        <v>12.322776696</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.0747487703120521</v>
+      </c>
+      <c r="T8">
+        <v>1.044423348951893</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.1</v>
+      </c>
+      <c r="W8">
+        <v>0.01458</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>142.5293158413839</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07112955089001576</v>
+      </c>
+      <c r="C9">
+        <v>43.02209588877351</v>
+      </c>
+      <c r="D9">
+        <v>34.04069588877351</v>
+      </c>
+      <c r="E9">
+        <v>-0.7614000000000001</v>
+      </c>
+      <c r="F9">
+        <v>3.2186</v>
+      </c>
+      <c r="G9">
+        <v>12.2</v>
+      </c>
+      <c r="H9">
+        <v>42</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>6.63</v>
+      </c>
+      <c r="L9">
+        <v>6.37</v>
+      </c>
+      <c r="M9">
+        <v>0.05214132</v>
+      </c>
+      <c r="N9">
+        <v>6.317858680000001</v>
+      </c>
+      <c r="O9">
+        <v>0.6317858680000001</v>
+      </c>
+      <c r="P9">
+        <v>5.686072812000001</v>
+      </c>
+      <c r="Q9">
+        <v>12.316072812</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07538596869894168</v>
+      </c>
+      <c r="T9">
+        <v>1.054591681680054</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.1</v>
+      </c>
+      <c r="W9">
+        <v>0.01458</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>122.1679850069005</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07112045768670254</v>
+      </c>
+      <c r="C10">
+        <v>42.56359979972582</v>
+      </c>
+      <c r="D10">
+        <v>34.04199979972582</v>
+      </c>
+      <c r="E10">
+        <v>-0.3016000000000001</v>
+      </c>
+      <c r="F10">
+        <v>3.6784</v>
+      </c>
+      <c r="G10">
+        <v>12.2</v>
+      </c>
+      <c r="H10">
+        <v>42</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>6.63</v>
+      </c>
+      <c r="L10">
+        <v>6.37</v>
+      </c>
+      <c r="M10">
+        <v>0.05959008</v>
+      </c>
+      <c r="N10">
+        <v>6.31040992</v>
+      </c>
+      <c r="O10">
+        <v>0.631040992</v>
+      </c>
+      <c r="P10">
+        <v>5.679368928</v>
+      </c>
+      <c r="Q10">
+        <v>12.309368928</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07603701922467668</v>
+      </c>
+      <c r="T10">
+        <v>1.064981065119698</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.1</v>
+      </c>
+      <c r="W10">
+        <v>0.01458</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>106.8969868810379</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.07111136448338935</v>
+      </c>
+      <c r="C11">
+        <v>42.10510381057318</v>
+      </c>
+      <c r="D11">
+        <v>34.04330381057319</v>
+      </c>
+      <c r="E11">
+        <v>0.1581999999999995</v>
+      </c>
+      <c r="F11">
+        <v>4.138199999999999</v>
+      </c>
+      <c r="G11">
+        <v>12.2</v>
+      </c>
+      <c r="H11">
+        <v>42</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>6.63</v>
+      </c>
+      <c r="L11">
+        <v>6.37</v>
+      </c>
+      <c r="M11">
+        <v>0.06703883999999999</v>
+      </c>
+      <c r="N11">
+        <v>6.30296116</v>
+      </c>
+      <c r="O11">
+        <v>0.630296116</v>
+      </c>
+      <c r="P11">
+        <v>5.672665043999999</v>
+      </c>
+      <c r="Q11">
+        <v>12.302665044</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.0767023785531751</v>
+      </c>
+      <c r="T11">
+        <v>1.075598786656915</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.1</v>
+      </c>
+      <c r="W11">
+        <v>0.01458</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>95.01954389425593</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.07110227128007615</v>
+      </c>
+      <c r="C12">
+        <v>41.64660792132712</v>
+      </c>
+      <c r="D12">
+        <v>34.04460792132712</v>
+      </c>
+      <c r="E12">
+        <v>0.6179999999999999</v>
+      </c>
+      <c r="F12">
+        <v>4.598</v>
+      </c>
+      <c r="G12">
+        <v>12.2</v>
+      </c>
+      <c r="H12">
+        <v>42</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>13</v>
+      </c>
+      <c r="K12">
+        <v>6.63</v>
+      </c>
+      <c r="L12">
+        <v>6.37</v>
+      </c>
+      <c r="M12">
+        <v>0.07448759999999999</v>
+      </c>
+      <c r="N12">
+        <v>6.2955124</v>
+      </c>
+      <c r="O12">
+        <v>0.6295512400000001</v>
+      </c>
+      <c r="P12">
+        <v>5.66596116</v>
+      </c>
+      <c r="Q12">
+        <v>12.29596116</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07738252364452905</v>
+      </c>
+      <c r="T12">
+        <v>1.086452457561627</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.1</v>
+      </c>
+      <c r="W12">
+        <v>0.01458</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>85.51758950483034</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.07109317807676292</v>
+      </c>
+      <c r="C13">
+        <v>41.18811213199908</v>
+      </c>
+      <c r="D13">
+        <v>34.04591213199908</v>
+      </c>
+      <c r="E13">
+        <v>1.077799999999999</v>
+      </c>
+      <c r="F13">
+        <v>5.057799999999999</v>
+      </c>
+      <c r="G13">
+        <v>12.2</v>
+      </c>
+      <c r="H13">
+        <v>42</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>13</v>
+      </c>
+      <c r="K13">
+        <v>6.63</v>
+      </c>
+      <c r="L13">
+        <v>6.37</v>
+      </c>
+      <c r="M13">
+        <v>0.08193635999999999</v>
+      </c>
+      <c r="N13">
+        <v>6.28806364</v>
+      </c>
+      <c r="O13">
+        <v>0.628806364</v>
+      </c>
+      <c r="P13">
+        <v>5.659257276</v>
+      </c>
+      <c r="Q13">
+        <v>12.289257276</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07807795289523924</v>
+      </c>
+      <c r="T13">
+        <v>1.097550031183298</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.1</v>
+      </c>
+      <c r="W13">
+        <v>0.01458</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>77.7432631862094</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.07108408487344972</v>
+      </c>
+      <c r="C14">
+        <v>40.72961644260057</v>
+      </c>
+      <c r="D14">
+        <v>34.04721644260057</v>
+      </c>
+      <c r="E14">
+        <v>1.5376</v>
+      </c>
+      <c r="F14">
+        <v>5.5176</v>
+      </c>
+      <c r="G14">
+        <v>12.2</v>
+      </c>
+      <c r="H14">
+        <v>42</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>13</v>
+      </c>
+      <c r="K14">
+        <v>6.63</v>
+      </c>
+      <c r="L14">
+        <v>6.37</v>
+      </c>
+      <c r="M14">
+        <v>0.08938512</v>
+      </c>
+      <c r="N14">
+        <v>6.28061488</v>
+      </c>
+      <c r="O14">
+        <v>0.6280614880000001</v>
+      </c>
+      <c r="P14">
+        <v>5.652553392</v>
+      </c>
+      <c r="Q14">
+        <v>12.282553392</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07878918735619286</v>
+      </c>
+      <c r="T14">
+        <v>1.108899822387281</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.1</v>
+      </c>
+      <c r="W14">
+        <v>0.01458</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>71.26465792069195</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.07107499167013652</v>
+      </c>
+      <c r="C15">
+        <v>40.27112085314306</v>
+      </c>
+      <c r="D15">
+        <v>34.04852085314306</v>
+      </c>
+      <c r="E15">
+        <v>1.997399999999999</v>
+      </c>
+      <c r="F15">
+        <v>5.977399999999999</v>
+      </c>
+      <c r="G15">
+        <v>12.2</v>
+      </c>
+      <c r="H15">
+        <v>42</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>13</v>
+      </c>
+      <c r="K15">
+        <v>6.63</v>
+      </c>
+      <c r="L15">
+        <v>6.37</v>
+      </c>
+      <c r="M15">
+        <v>0.09683387999999998</v>
+      </c>
+      <c r="N15">
+        <v>6.27316612</v>
+      </c>
+      <c r="O15">
+        <v>0.627316612</v>
+      </c>
+      <c r="P15">
+        <v>5.645849508</v>
+      </c>
+      <c r="Q15">
+        <v>12.275849508</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07951677203463967</v>
+      </c>
+      <c r="T15">
+        <v>1.120510528331584</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.1</v>
+      </c>
+      <c r="W15">
+        <v>0.01458</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>65.78276115756181</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.07106589846682329</v>
+      </c>
+      <c r="C16">
+        <v>39.81262536363804</v>
+      </c>
+      <c r="D16">
+        <v>34.04982536363804</v>
+      </c>
+      <c r="E16">
+        <v>2.4572</v>
+      </c>
+      <c r="F16">
+        <v>6.4372</v>
+      </c>
+      <c r="G16">
+        <v>12.2</v>
+      </c>
+      <c r="H16">
+        <v>42</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>6.63</v>
+      </c>
+      <c r="L16">
+        <v>6.37</v>
+      </c>
+      <c r="M16">
+        <v>0.10428264</v>
+      </c>
+      <c r="N16">
+        <v>6.26571736</v>
+      </c>
+      <c r="O16">
+        <v>0.626571736</v>
+      </c>
+      <c r="P16">
+        <v>5.639145624</v>
+      </c>
+      <c r="Q16">
+        <v>12.269145624</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.08026127728700383</v>
+      </c>
+      <c r="T16">
+        <v>1.132391250693197</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.1</v>
+      </c>
+      <c r="W16">
+        <v>0.01458</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>61.08399250345024</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.07105680526351009</v>
+      </c>
+      <c r="C17">
+        <v>39.354129974097</v>
+      </c>
+      <c r="D17">
+        <v>34.051129974097</v>
+      </c>
+      <c r="E17">
+        <v>2.916999999999999</v>
+      </c>
+      <c r="F17">
+        <v>6.896999999999999</v>
+      </c>
+      <c r="G17">
+        <v>12.2</v>
+      </c>
+      <c r="H17">
+        <v>42</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>6.63</v>
+      </c>
+      <c r="L17">
+        <v>6.37</v>
+      </c>
+      <c r="M17">
+        <v>0.1117314</v>
+      </c>
+      <c r="N17">
+        <v>6.2582686</v>
+      </c>
+      <c r="O17">
+        <v>0.6258268600000001</v>
+      </c>
+      <c r="P17">
+        <v>5.63244174</v>
+      </c>
+      <c r="Q17">
+        <v>12.26244174</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.08102330031001188</v>
+      </c>
+      <c r="T17">
+        <v>1.144551519463318</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.1</v>
+      </c>
+      <c r="W17">
+        <v>0.01458</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>57.01172633655356</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.07104771206019687</v>
+      </c>
+      <c r="C18">
+        <v>38.89563468453142</v>
+      </c>
+      <c r="D18">
+        <v>34.05243468453143</v>
+      </c>
+      <c r="E18">
+        <v>3.3768</v>
+      </c>
+      <c r="F18">
+        <v>7.3568</v>
+      </c>
+      <c r="G18">
+        <v>12.2</v>
+      </c>
+      <c r="H18">
+        <v>42</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>6.63</v>
+      </c>
+      <c r="L18">
+        <v>6.37</v>
+      </c>
+      <c r="M18">
+        <v>0.11918016</v>
+      </c>
+      <c r="N18">
+        <v>6.25081984</v>
+      </c>
+      <c r="O18">
+        <v>0.625081984</v>
+      </c>
+      <c r="P18">
+        <v>5.625737856</v>
+      </c>
+      <c r="Q18">
+        <v>12.255737856</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.08180346673832962</v>
+      </c>
+      <c r="T18">
+        <v>1.157001318442252</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.1</v>
+      </c>
+      <c r="W18">
+        <v>0.01458</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>53.44849344051897</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.07103861885688367</v>
+      </c>
+      <c r="C19">
+        <v>38.43713949495282</v>
+      </c>
+      <c r="D19">
+        <v>34.05373949495282</v>
+      </c>
+      <c r="E19">
+        <v>3.8366</v>
+      </c>
+      <c r="F19">
+        <v>7.8166</v>
+      </c>
+      <c r="G19">
+        <v>12.2</v>
+      </c>
+      <c r="H19">
+        <v>42</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>13</v>
+      </c>
+      <c r="K19">
+        <v>6.63</v>
+      </c>
+      <c r="L19">
+        <v>6.37</v>
+      </c>
+      <c r="M19">
+        <v>0.12662892</v>
+      </c>
+      <c r="N19">
+        <v>6.24337108</v>
+      </c>
+      <c r="O19">
+        <v>0.6243371080000001</v>
+      </c>
+      <c r="P19">
+        <v>5.619033972</v>
+      </c>
+      <c r="Q19">
+        <v>12.249033972</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.08260243235769119</v>
+      </c>
+      <c r="T19">
+        <v>1.169751112577305</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.1</v>
+      </c>
+      <c r="W19">
+        <v>0.01458</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>50.30446441460608</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.07102952565357047</v>
+      </c>
+      <c r="C20">
+        <v>37.97864440537268</v>
+      </c>
+      <c r="D20">
+        <v>34.05504440537267</v>
+      </c>
+      <c r="E20">
+        <v>4.296399999999998</v>
+      </c>
+      <c r="F20">
+        <v>8.276399999999999</v>
+      </c>
+      <c r="G20">
+        <v>12.2</v>
+      </c>
+      <c r="H20">
+        <v>42</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>13</v>
+      </c>
+      <c r="K20">
+        <v>6.63</v>
+      </c>
+      <c r="L20">
+        <v>6.37</v>
+      </c>
+      <c r="M20">
+        <v>0.13407768</v>
+      </c>
+      <c r="N20">
+        <v>6.23592232</v>
+      </c>
+      <c r="O20">
+        <v>0.623592232</v>
+      </c>
+      <c r="P20">
+        <v>5.612330088</v>
+      </c>
+      <c r="Q20">
+        <v>12.242330088</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08342088494337861</v>
+      </c>
+      <c r="T20">
+        <v>1.182811877301017</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.1</v>
+      </c>
+      <c r="W20">
+        <v>0.01458</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>47.50977194712797</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.07102043245025727</v>
+      </c>
+      <c r="C21">
+        <v>37.52014941580248</v>
+      </c>
+      <c r="D21">
+        <v>34.05634941580247</v>
+      </c>
+      <c r="E21">
+        <v>4.7562</v>
+      </c>
+      <c r="F21">
+        <v>8.7362</v>
+      </c>
+      <c r="G21">
+        <v>12.2</v>
+      </c>
+      <c r="H21">
+        <v>42</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>13</v>
+      </c>
+      <c r="K21">
+        <v>6.63</v>
+      </c>
+      <c r="L21">
+        <v>6.37</v>
+      </c>
+      <c r="M21">
+        <v>0.14152644</v>
+      </c>
+      <c r="N21">
+        <v>6.22847356</v>
+      </c>
+      <c r="O21">
+        <v>0.6228473560000001</v>
+      </c>
+      <c r="P21">
+        <v>5.605626204</v>
+      </c>
+      <c r="Q21">
+        <v>12.235626204</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.0842595462348855</v>
+      </c>
+      <c r="T21">
+        <v>1.196195130042599</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.1</v>
+      </c>
+      <c r="W21">
+        <v>0.01458</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>45.00925763412123</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.07101133924694406</v>
+      </c>
+      <c r="C22">
+        <v>37.06165452625373</v>
+      </c>
+      <c r="D22">
+        <v>34.05765452625373</v>
+      </c>
+      <c r="E22">
+        <v>5.215999999999999</v>
+      </c>
+      <c r="F22">
+        <v>9.196</v>
+      </c>
+      <c r="G22">
+        <v>12.2</v>
+      </c>
+      <c r="H22">
+        <v>42</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>13</v>
+      </c>
+      <c r="K22">
+        <v>6.63</v>
+      </c>
+      <c r="L22">
+        <v>6.37</v>
+      </c>
+      <c r="M22">
+        <v>0.1489752</v>
+      </c>
+      <c r="N22">
+        <v>6.2210248</v>
+      </c>
+      <c r="O22">
+        <v>0.6221024800000001</v>
+      </c>
+      <c r="P22">
+        <v>5.59892232</v>
+      </c>
+      <c r="Q22">
+        <v>12.22892232</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08511917405868007</v>
+      </c>
+      <c r="T22">
+        <v>1.209912964102721</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.1</v>
+      </c>
+      <c r="W22">
+        <v>0.01458</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>42.75879475241518</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.07100224604363085</v>
+      </c>
+      <c r="C23">
+        <v>36.60315973673794</v>
+      </c>
+      <c r="D23">
+        <v>34.05895973673794</v>
+      </c>
+      <c r="E23">
+        <v>5.675799999999999</v>
+      </c>
+      <c r="F23">
+        <v>9.655799999999999</v>
+      </c>
+      <c r="G23">
+        <v>12.2</v>
+      </c>
+      <c r="H23">
+        <v>42</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
+      </c>
+      <c r="K23">
+        <v>6.63</v>
+      </c>
+      <c r="L23">
+        <v>6.37</v>
+      </c>
+      <c r="M23">
+        <v>0.15642396</v>
+      </c>
+      <c r="N23">
+        <v>6.21357604</v>
+      </c>
+      <c r="O23">
+        <v>0.6213576040000001</v>
+      </c>
+      <c r="P23">
+        <v>5.592218436</v>
+      </c>
+      <c r="Q23">
+        <v>12.222218436</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.08600056461219094</v>
+      </c>
+      <c r="T23">
+        <v>1.223978085101074</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.1</v>
+      </c>
+      <c r="W23">
+        <v>0.01458</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>40.72266166896684</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.07099315284031764</v>
+      </c>
+      <c r="C24">
+        <v>36.1446650472666</v>
+      </c>
+      <c r="D24">
+        <v>34.0602650472666</v>
+      </c>
+      <c r="E24">
+        <v>6.135599999999998</v>
+      </c>
+      <c r="F24">
+        <v>10.1156</v>
+      </c>
+      <c r="G24">
+        <v>12.2</v>
+      </c>
+      <c r="H24">
+        <v>42</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>13</v>
+      </c>
+      <c r="K24">
+        <v>6.63</v>
+      </c>
+      <c r="L24">
+        <v>6.37</v>
+      </c>
+      <c r="M24">
+        <v>0.16387272</v>
+      </c>
+      <c r="N24">
+        <v>6.20612728</v>
+      </c>
+      <c r="O24">
+        <v>0.6206127280000001</v>
+      </c>
+      <c r="P24">
+        <v>5.585514552</v>
+      </c>
+      <c r="Q24">
+        <v>12.215514552</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08690455492348415</v>
+      </c>
+      <c r="T24">
+        <v>1.238403850227589</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.1</v>
+      </c>
+      <c r="W24">
+        <v>0.01458</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>38.87163159310471</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.07098405963700444</v>
+      </c>
+      <c r="C25">
+        <v>35.6861704578512</v>
+      </c>
+      <c r="D25">
+        <v>34.06157045785121</v>
+      </c>
+      <c r="E25">
+        <v>6.5954</v>
+      </c>
+      <c r="F25">
+        <v>10.5754</v>
+      </c>
+      <c r="G25">
+        <v>12.2</v>
+      </c>
+      <c r="H25">
+        <v>42</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>13</v>
+      </c>
+      <c r="K25">
+        <v>6.63</v>
+      </c>
+      <c r="L25">
+        <v>6.37</v>
+      </c>
+      <c r="M25">
+        <v>0.17132148</v>
+      </c>
+      <c r="N25">
+        <v>6.198678520000001</v>
+      </c>
+      <c r="O25">
+        <v>0.6198678520000001</v>
+      </c>
+      <c r="P25">
+        <v>5.578810668000001</v>
+      </c>
+      <c r="Q25">
+        <v>12.208810668</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08783202550260316</v>
+      </c>
+      <c r="T25">
+        <v>1.253204310552196</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.1</v>
+      </c>
+      <c r="W25">
+        <v>0.01458</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>37.18156065427407</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.07097496643369121</v>
+      </c>
+      <c r="C26">
+        <v>35.22767596850329</v>
+      </c>
+      <c r="D26">
+        <v>34.06287596850329</v>
+      </c>
+      <c r="E26">
+        <v>7.055199999999999</v>
+      </c>
+      <c r="F26">
+        <v>11.0352</v>
+      </c>
+      <c r="G26">
+        <v>12.2</v>
+      </c>
+      <c r="H26">
+        <v>42</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>13</v>
+      </c>
+      <c r="K26">
+        <v>6.63</v>
+      </c>
+      <c r="L26">
+        <v>6.37</v>
+      </c>
+      <c r="M26">
+        <v>0.17877024</v>
+      </c>
+      <c r="N26">
+        <v>6.19122976</v>
+      </c>
+      <c r="O26">
+        <v>0.619122976</v>
+      </c>
+      <c r="P26">
+        <v>5.572106784</v>
+      </c>
+      <c r="Q26">
+        <v>12.202106784</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08878390320222529</v>
+      </c>
+      <c r="T26">
+        <v>1.268394256674818</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.1</v>
+      </c>
+      <c r="W26">
+        <v>0.01458</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>35.63232896034597</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.07096587323037801</v>
+      </c>
+      <c r="C27">
+        <v>34.76918157923433</v>
+      </c>
+      <c r="D27">
+        <v>34.06418157923434</v>
+      </c>
+      <c r="E27">
+        <v>7.514999999999999</v>
+      </c>
+      <c r="F27">
+        <v>11.495</v>
+      </c>
+      <c r="G27">
+        <v>12.2</v>
+      </c>
+      <c r="H27">
+        <v>42</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>13</v>
+      </c>
+      <c r="K27">
+        <v>6.63</v>
+      </c>
+      <c r="L27">
+        <v>6.37</v>
+      </c>
+      <c r="M27">
+        <v>0.186219</v>
+      </c>
+      <c r="N27">
+        <v>6.183781</v>
+      </c>
+      <c r="O27">
+        <v>0.6183781</v>
+      </c>
+      <c r="P27">
+        <v>5.5654029</v>
+      </c>
+      <c r="Q27">
+        <v>12.1954029</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08976116430717068</v>
+      </c>
+      <c r="T27">
+        <v>1.283989268027377</v>
+      </c>
+      <c r="U27">
+        <v>0.0162</v>
+      </c>
+      <c r="V27">
+        <v>0.1</v>
+      </c>
+      <c r="W27">
+        <v>0.01458</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>34.20703580193214</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.07095678002706481</v>
+      </c>
+      <c r="C28">
+        <v>34.31068729005585</v>
+      </c>
+      <c r="D28">
+        <v>34.06548729005585</v>
+      </c>
+      <c r="E28">
+        <v>7.974799999999998</v>
+      </c>
+      <c r="F28">
+        <v>11.9548</v>
+      </c>
+      <c r="G28">
+        <v>12.2</v>
+      </c>
+      <c r="H28">
+        <v>42</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>13</v>
+      </c>
+      <c r="K28">
+        <v>6.63</v>
+      </c>
+      <c r="L28">
+        <v>6.37</v>
+      </c>
+      <c r="M28">
+        <v>0.19366776</v>
+      </c>
+      <c r="N28">
+        <v>6.17633224</v>
+      </c>
+      <c r="O28">
+        <v>0.617633224</v>
+      </c>
+      <c r="P28">
+        <v>5.558699016</v>
+      </c>
+      <c r="Q28">
+        <v>12.188699016</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.0907648378744119</v>
+      </c>
+      <c r="T28">
+        <v>1.300005766173249</v>
+      </c>
+      <c r="U28">
+        <v>0.0162</v>
+      </c>
+      <c r="V28">
+        <v>0.1</v>
+      </c>
+      <c r="W28">
+        <v>0.01458</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>32.8913805787809</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.0709476868237516</v>
+      </c>
+      <c r="C29">
+        <v>33.85219310097936</v>
+      </c>
+      <c r="D29">
+        <v>34.06679310097935</v>
+      </c>
+      <c r="E29">
+        <v>8.4346</v>
+      </c>
+      <c r="F29">
+        <v>12.4146</v>
+      </c>
+      <c r="G29">
+        <v>12.2</v>
+      </c>
+      <c r="H29">
+        <v>42</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>13</v>
+      </c>
+      <c r="K29">
+        <v>6.63</v>
+      </c>
+      <c r="L29">
+        <v>6.37</v>
+      </c>
+      <c r="M29">
+        <v>0.20111652</v>
+      </c>
+      <c r="N29">
+        <v>6.16888348</v>
+      </c>
+      <c r="O29">
+        <v>0.616888348</v>
+      </c>
+      <c r="P29">
+        <v>5.551995132</v>
+      </c>
+      <c r="Q29">
+        <v>12.181995132</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.09179600934760494</v>
+      </c>
+      <c r="T29">
+        <v>1.316461072487501</v>
+      </c>
+      <c r="U29">
+        <v>0.0162</v>
+      </c>
+      <c r="V29">
+        <v>0.1</v>
+      </c>
+      <c r="W29">
+        <v>0.01458</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>31.67318129808531</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.07093859362043839</v>
+      </c>
+      <c r="C30">
+        <v>33.39369901201635</v>
+      </c>
+      <c r="D30">
+        <v>34.06809901201635</v>
+      </c>
+      <c r="E30">
+        <v>8.894399999999999</v>
+      </c>
+      <c r="F30">
+        <v>12.8744</v>
+      </c>
+      <c r="G30">
+        <v>12.2</v>
+      </c>
+      <c r="H30">
+        <v>42</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+      <c r="K30">
+        <v>6.63</v>
+      </c>
+      <c r="L30">
+        <v>6.37</v>
+      </c>
+      <c r="M30">
+        <v>0.20856528</v>
+      </c>
+      <c r="N30">
+        <v>6.16143472</v>
+      </c>
+      <c r="O30">
+        <v>0.6161434720000001</v>
+      </c>
+      <c r="P30">
+        <v>5.545291248</v>
+      </c>
+      <c r="Q30">
+        <v>12.175291248</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.0928558244728311</v>
+      </c>
+      <c r="T30">
+        <v>1.333373470643815</v>
+      </c>
+      <c r="U30">
+        <v>0.0162</v>
+      </c>
+      <c r="V30">
+        <v>0.1</v>
+      </c>
+      <c r="W30">
+        <v>0.01458</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>30.54199625172512</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.07092950041712517</v>
+      </c>
+      <c r="C31">
+        <v>32.93520502317837</v>
+      </c>
+      <c r="D31">
+        <v>34.06940502317836</v>
+      </c>
+      <c r="E31">
+        <v>9.354199999999997</v>
+      </c>
+      <c r="F31">
+        <v>13.3342</v>
+      </c>
+      <c r="G31">
+        <v>12.2</v>
+      </c>
+      <c r="H31">
+        <v>42</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+      <c r="K31">
+        <v>6.63</v>
+      </c>
+      <c r="L31">
+        <v>6.37</v>
+      </c>
+      <c r="M31">
+        <v>0.2160140399999999</v>
+      </c>
+      <c r="N31">
+        <v>6.15398596</v>
+      </c>
+      <c r="O31">
+        <v>0.615398596</v>
+      </c>
+      <c r="P31">
+        <v>5.538587364</v>
+      </c>
+      <c r="Q31">
+        <v>12.168587364</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09394549354524673</v>
+      </c>
+      <c r="T31">
+        <v>1.350762274381997</v>
+      </c>
+      <c r="U31">
+        <v>0.0162</v>
+      </c>
+      <c r="V31">
+        <v>0.1</v>
+      </c>
+      <c r="W31">
+        <v>0.01458</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>29.48882396718288</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.07092040721381196</v>
+      </c>
+      <c r="C32">
+        <v>32.4767111344769</v>
+      </c>
+      <c r="D32">
+        <v>34.0707111344769</v>
+      </c>
+      <c r="E32">
+        <v>9.813999999999998</v>
+      </c>
+      <c r="F32">
+        <v>13.794</v>
+      </c>
+      <c r="G32">
+        <v>12.2</v>
+      </c>
+      <c r="H32">
+        <v>42</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>13</v>
+      </c>
+      <c r="K32">
+        <v>6.63</v>
+      </c>
+      <c r="L32">
+        <v>6.37</v>
+      </c>
+      <c r="M32">
+        <v>0.2234628</v>
+      </c>
+      <c r="N32">
+        <v>6.1465372</v>
+      </c>
+      <c r="O32">
+        <v>0.6146537200000001</v>
+      </c>
+      <c r="P32">
+        <v>5.53188348</v>
+      </c>
+      <c r="Q32">
+        <v>12.16188348</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09506629601973138</v>
+      </c>
+      <c r="T32">
+        <v>1.368647901084127</v>
+      </c>
+      <c r="U32">
+        <v>0.0162</v>
+      </c>
+      <c r="V32">
+        <v>0.1</v>
+      </c>
+      <c r="W32">
+        <v>0.01458</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>28.50586316827678</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.07091131401049876</v>
+      </c>
+      <c r="C33">
+        <v>32.01821734592349</v>
+      </c>
+      <c r="D33">
+        <v>34.07201734592348</v>
+      </c>
+      <c r="E33">
+        <v>10.2738</v>
+      </c>
+      <c r="F33">
+        <v>14.2538</v>
+      </c>
+      <c r="G33">
+        <v>12.2</v>
+      </c>
+      <c r="H33">
+        <v>42</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>13</v>
+      </c>
+      <c r="K33">
+        <v>6.63</v>
+      </c>
+      <c r="L33">
+        <v>6.37</v>
+      </c>
+      <c r="M33">
+        <v>0.23091156</v>
+      </c>
+      <c r="N33">
+        <v>6.13908844</v>
+      </c>
+      <c r="O33">
+        <v>0.613908844</v>
+      </c>
+      <c r="P33">
+        <v>5.525179596</v>
+      </c>
+      <c r="Q33">
+        <v>12.155179596</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09621958552246197</v>
+      </c>
+      <c r="T33">
+        <v>1.387051951748639</v>
+      </c>
+      <c r="U33">
+        <v>0.0162</v>
+      </c>
+      <c r="V33">
+        <v>0.1</v>
+      </c>
+      <c r="W33">
+        <v>0.01458</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>27.58631919510657</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.07090222080718556</v>
+      </c>
+      <c r="C34">
+        <v>31.55972365752963</v>
+      </c>
+      <c r="D34">
+        <v>34.07332365752963</v>
+      </c>
+      <c r="E34">
+        <v>10.7336</v>
+      </c>
+      <c r="F34">
+        <v>14.7136</v>
+      </c>
+      <c r="G34">
+        <v>12.2</v>
+      </c>
+      <c r="H34">
+        <v>42</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>13</v>
+      </c>
+      <c r="K34">
+        <v>6.63</v>
+      </c>
+      <c r="L34">
+        <v>6.37</v>
+      </c>
+      <c r="M34">
+        <v>0.23836032</v>
+      </c>
+      <c r="N34">
+        <v>6.13163968</v>
+      </c>
+      <c r="O34">
+        <v>0.6131639680000001</v>
+      </c>
+      <c r="P34">
+        <v>5.518475712</v>
+      </c>
+      <c r="Q34">
+        <v>12.148475712</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09740679530468464</v>
+      </c>
+      <c r="T34">
+        <v>1.405997298020929</v>
+      </c>
+      <c r="U34">
+        <v>0.0162</v>
+      </c>
+      <c r="V34">
+        <v>0.1</v>
+      </c>
+      <c r="W34">
+        <v>0.01458</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>26.72424672025948</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.07089312760387234</v>
+      </c>
+      <c r="C35">
+        <v>31.10123006930685</v>
+      </c>
+      <c r="D35">
+        <v>34.07463006930685</v>
+      </c>
+      <c r="E35">
+        <v>11.1934</v>
+      </c>
+      <c r="F35">
+        <v>15.1734</v>
+      </c>
+      <c r="G35">
+        <v>12.2</v>
+      </c>
+      <c r="H35">
+        <v>42</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>13</v>
+      </c>
+      <c r="K35">
+        <v>6.63</v>
+      </c>
+      <c r="L35">
+        <v>6.37</v>
+      </c>
+      <c r="M35">
+        <v>0.24580908</v>
+      </c>
+      <c r="N35">
+        <v>6.12419092</v>
+      </c>
+      <c r="O35">
+        <v>0.6124190920000001</v>
+      </c>
+      <c r="P35">
+        <v>5.511771828000001</v>
+      </c>
+      <c r="Q35">
+        <v>12.141771828</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09862944418488409</v>
+      </c>
+      <c r="T35">
+        <v>1.425508177017766</v>
+      </c>
+      <c r="U35">
+        <v>0.0162</v>
+      </c>
+      <c r="V35">
+        <v>0.1</v>
+      </c>
+      <c r="W35">
+        <v>0.01458</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>25.9144210620698</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.07088403440055913</v>
+      </c>
+      <c r="C36">
+        <v>30.64273658126667</v>
+      </c>
+      <c r="D36">
+        <v>34.07593658126668</v>
+      </c>
+      <c r="E36">
+        <v>11.6532</v>
+      </c>
+      <c r="F36">
+        <v>15.6332</v>
+      </c>
+      <c r="G36">
+        <v>12.2</v>
+      </c>
+      <c r="H36">
+        <v>42</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>13</v>
+      </c>
+      <c r="K36">
+        <v>6.63</v>
+      </c>
+      <c r="L36">
+        <v>6.37</v>
+      </c>
+      <c r="M36">
+        <v>0.25325784</v>
+      </c>
+      <c r="N36">
+        <v>6.11674216</v>
+      </c>
+      <c r="O36">
+        <v>0.611674216</v>
+      </c>
+      <c r="P36">
+        <v>5.505067944</v>
+      </c>
+      <c r="Q36">
+        <v>12.135067944</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09988914303115022</v>
+      </c>
+      <c r="T36">
+        <v>1.445610294772083</v>
+      </c>
+      <c r="U36">
+        <v>0.0162</v>
+      </c>
+      <c r="V36">
+        <v>0.1</v>
+      </c>
+      <c r="W36">
+        <v>0.01458</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>25.15223220730304</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.07087494119724592</v>
+      </c>
+      <c r="C37">
+        <v>30.18424319342065</v>
+      </c>
+      <c r="D37">
+        <v>34.07724319342064</v>
+      </c>
+      <c r="E37">
+        <v>12.113</v>
+      </c>
+      <c r="F37">
+        <v>16.093</v>
+      </c>
+      <c r="G37">
+        <v>12.2</v>
+      </c>
+      <c r="H37">
+        <v>42</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>13</v>
+      </c>
+      <c r="K37">
+        <v>6.63</v>
+      </c>
+      <c r="L37">
+        <v>6.37</v>
+      </c>
+      <c r="M37">
+        <v>0.2607066</v>
+      </c>
+      <c r="N37">
+        <v>6.1092934</v>
+      </c>
+      <c r="O37">
+        <v>0.6109293400000001</v>
+      </c>
+      <c r="P37">
+        <v>5.49836406</v>
+      </c>
+      <c r="Q37">
+        <v>12.12836406</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.1011876018419168</v>
+      </c>
+      <c r="T37">
+        <v>1.466330939226532</v>
+      </c>
+      <c r="U37">
+        <v>0.0162</v>
+      </c>
+      <c r="V37">
+        <v>0.1</v>
+      </c>
+      <c r="W37">
+        <v>0.01458</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>24.4335970013801</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.07086584799393272</v>
+      </c>
+      <c r="C38">
+        <v>29.72574990578025</v>
+      </c>
+      <c r="D38">
+        <v>34.07854990578026</v>
+      </c>
+      <c r="E38">
+        <v>12.5728</v>
+      </c>
+      <c r="F38">
+        <v>16.5528</v>
+      </c>
+      <c r="G38">
+        <v>12.2</v>
+      </c>
+      <c r="H38">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>13</v>
+      </c>
+      <c r="K38">
+        <v>6.63</v>
+      </c>
+      <c r="L38">
+        <v>6.37</v>
+      </c>
+      <c r="M38">
+        <v>0.26815536</v>
+      </c>
+      <c r="N38">
+        <v>6.10184464</v>
+      </c>
+      <c r="O38">
+        <v>0.610184464</v>
+      </c>
+      <c r="P38">
+        <v>5.491660176</v>
+      </c>
+      <c r="Q38">
+        <v>12.121660176</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.1025266374905199</v>
+      </c>
+      <c r="T38">
+        <v>1.487699103820183</v>
+      </c>
+      <c r="U38">
+        <v>0.0162</v>
+      </c>
+      <c r="V38">
+        <v>0.1</v>
+      </c>
+      <c r="W38">
+        <v>0.01458</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>23.75488597356399</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.07085675479061951</v>
+      </c>
+      <c r="C39">
+        <v>29.26725671835705</v>
+      </c>
+      <c r="D39">
+        <v>34.07985671835706</v>
+      </c>
+      <c r="E39">
+        <v>13.0326</v>
+      </c>
+      <c r="F39">
+        <v>17.0126</v>
+      </c>
+      <c r="G39">
+        <v>12.2</v>
+      </c>
+      <c r="H39">
+        <v>42</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>13</v>
+      </c>
+      <c r="K39">
+        <v>6.63</v>
+      </c>
+      <c r="L39">
+        <v>6.37</v>
+      </c>
+      <c r="M39">
+        <v>0.27560412</v>
+      </c>
+      <c r="N39">
+        <v>6.09439588</v>
+      </c>
+      <c r="O39">
+        <v>0.6094395880000001</v>
+      </c>
+      <c r="P39">
+        <v>5.484956292000001</v>
+      </c>
+      <c r="Q39">
+        <v>12.114956292</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.1039081822073326</v>
+      </c>
+      <c r="T39">
+        <v>1.509745622845378</v>
+      </c>
+      <c r="U39">
+        <v>0.0162</v>
+      </c>
+      <c r="V39">
+        <v>0.1</v>
+      </c>
+      <c r="W39">
+        <v>0.01458</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>23.11286202833253</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.07084766158730631</v>
+      </c>
+      <c r="C40">
+        <v>28.80876363116257</v>
+      </c>
+      <c r="D40">
+        <v>34.08116363116257</v>
+      </c>
+      <c r="E40">
+        <v>13.4924</v>
+      </c>
+      <c r="F40">
+        <v>17.4724</v>
+      </c>
+      <c r="G40">
+        <v>12.2</v>
+      </c>
+      <c r="H40">
+        <v>42</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>13</v>
+      </c>
+      <c r="K40">
+        <v>6.63</v>
+      </c>
+      <c r="L40">
+        <v>6.37</v>
+      </c>
+      <c r="M40">
+        <v>0.28305288</v>
+      </c>
+      <c r="N40">
+        <v>6.08694712</v>
+      </c>
+      <c r="O40">
+        <v>0.6086947120000001</v>
+      </c>
+      <c r="P40">
+        <v>5.478252408</v>
+      </c>
+      <c r="Q40">
+        <v>12.108252408</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1053342928827521</v>
+      </c>
+      <c r="T40">
+        <v>1.532503319903644</v>
+      </c>
+      <c r="U40">
+        <v>0.0162</v>
+      </c>
+      <c r="V40">
+        <v>0.1</v>
+      </c>
+      <c r="W40">
+        <v>0.01458</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>22.50462881706062</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.07083856838399309</v>
+      </c>
+      <c r="C41">
+        <v>28.35027064420833</v>
+      </c>
+      <c r="D41">
+        <v>34.08247064420833</v>
+      </c>
+      <c r="E41">
+        <v>13.9522</v>
+      </c>
+      <c r="F41">
+        <v>17.9322</v>
+      </c>
+      <c r="G41">
+        <v>12.2</v>
+      </c>
+      <c r="H41">
+        <v>42</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>13</v>
+      </c>
+      <c r="K41">
+        <v>6.63</v>
+      </c>
+      <c r="L41">
+        <v>6.37</v>
+      </c>
+      <c r="M41">
+        <v>0.2905016399999999</v>
+      </c>
+      <c r="N41">
+        <v>6.079498360000001</v>
+      </c>
+      <c r="O41">
+        <v>0.6079498360000001</v>
+      </c>
+      <c r="P41">
+        <v>5.471548524</v>
+      </c>
+      <c r="Q41">
+        <v>12.101548524</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1068071612852346</v>
+      </c>
+      <c r="T41">
+        <v>1.556007170963821</v>
+      </c>
+      <c r="U41">
+        <v>0.0162</v>
+      </c>
+      <c r="V41">
+        <v>0.1</v>
+      </c>
+      <c r="W41">
+        <v>0.01458</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>21.9275870525206</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.07082947518067989</v>
+      </c>
+      <c r="C42">
+        <v>27.89177775750586</v>
+      </c>
+      <c r="D42">
+        <v>34.08377775750586</v>
+      </c>
+      <c r="E42">
+        <v>14.412</v>
+      </c>
+      <c r="F42">
+        <v>18.392</v>
+      </c>
+      <c r="G42">
+        <v>12.2</v>
+      </c>
+      <c r="H42">
+        <v>42</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>13</v>
+      </c>
+      <c r="K42">
+        <v>6.63</v>
+      </c>
+      <c r="L42">
+        <v>6.37</v>
+      </c>
+      <c r="M42">
+        <v>0.2979503999999999</v>
+      </c>
+      <c r="N42">
+        <v>6.0720496</v>
+      </c>
+      <c r="O42">
+        <v>0.60720496</v>
+      </c>
+      <c r="P42">
+        <v>5.46484464</v>
+      </c>
+      <c r="Q42">
+        <v>12.09484464</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1083291253011332</v>
+      </c>
+      <c r="T42">
+        <v>1.580294483726003</v>
+      </c>
+      <c r="U42">
+        <v>0.0162</v>
+      </c>
+      <c r="V42">
+        <v>0.1</v>
+      </c>
+      <c r="W42">
+        <v>0.01458</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>21.37939737620759</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.07082038197736668</v>
+      </c>
+      <c r="C43">
+        <v>27.43328497106671</v>
+      </c>
+      <c r="D43">
+        <v>34.08508497106671</v>
+      </c>
+      <c r="E43">
+        <v>14.8718</v>
+      </c>
+      <c r="F43">
+        <v>18.8518</v>
+      </c>
+      <c r="G43">
+        <v>12.2</v>
+      </c>
+      <c r="H43">
+        <v>42</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>13</v>
+      </c>
+      <c r="K43">
+        <v>6.63</v>
+      </c>
+      <c r="L43">
+        <v>6.37</v>
+      </c>
+      <c r="M43">
+        <v>0.30539916</v>
+      </c>
+      <c r="N43">
+        <v>6.06460084</v>
+      </c>
+      <c r="O43">
+        <v>0.6064600840000001</v>
+      </c>
+      <c r="P43">
+        <v>5.458140756</v>
+      </c>
+      <c r="Q43">
+        <v>12.088140756</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1099026813175706</v>
+      </c>
+      <c r="T43">
+        <v>1.605405095225886</v>
+      </c>
+      <c r="U43">
+        <v>0.0162</v>
+      </c>
+      <c r="V43">
+        <v>0.1</v>
+      </c>
+      <c r="W43">
+        <v>0.01458</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>20.85794865971472</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.07081128877405347</v>
+      </c>
+      <c r="C44">
+        <v>26.97479228490241</v>
+      </c>
+      <c r="D44">
+        <v>34.0863922849024</v>
+      </c>
+      <c r="E44">
+        <v>15.3316</v>
+      </c>
+      <c r="F44">
+        <v>19.3116</v>
+      </c>
+      <c r="G44">
+        <v>12.2</v>
+      </c>
+      <c r="H44">
+        <v>42</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>13</v>
+      </c>
+      <c r="K44">
+        <v>6.63</v>
+      </c>
+      <c r="L44">
+        <v>6.37</v>
+      </c>
+      <c r="M44">
+        <v>0.3128479199999999</v>
+      </c>
+      <c r="N44">
+        <v>6.05715208</v>
+      </c>
+      <c r="O44">
+        <v>0.605715208</v>
+      </c>
+      <c r="P44">
+        <v>5.451436871999999</v>
+      </c>
+      <c r="Q44">
+        <v>12.081436872</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1115304978862991</v>
+      </c>
+      <c r="T44">
+        <v>1.631381589880938</v>
+      </c>
+      <c r="U44">
+        <v>0.0162</v>
+      </c>
+      <c r="V44">
+        <v>0.1</v>
+      </c>
+      <c r="W44">
+        <v>0.01458</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>20.36133083448341</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.07080219557074026</v>
+      </c>
+      <c r="C45">
+        <v>26.5162996990245</v>
+      </c>
+      <c r="D45">
+        <v>34.0876996990245</v>
+      </c>
+      <c r="E45">
+        <v>15.7914</v>
+      </c>
+      <c r="F45">
+        <v>19.7714</v>
+      </c>
+      <c r="G45">
+        <v>12.2</v>
+      </c>
+      <c r="H45">
+        <v>42</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>13</v>
+      </c>
+      <c r="K45">
+        <v>6.63</v>
+      </c>
+      <c r="L45">
+        <v>6.37</v>
+      </c>
+      <c r="M45">
+        <v>0.32029668</v>
+      </c>
+      <c r="N45">
+        <v>6.04970332</v>
+      </c>
+      <c r="O45">
+        <v>0.6049703320000001</v>
+      </c>
+      <c r="P45">
+        <v>5.444732988</v>
+      </c>
+      <c r="Q45">
+        <v>12.074732988</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1132154308258601</v>
+      </c>
+      <c r="T45">
+        <v>1.658269540488799</v>
+      </c>
+      <c r="U45">
+        <v>0.0162</v>
+      </c>
+      <c r="V45">
+        <v>0.1</v>
+      </c>
+      <c r="W45">
+        <v>0.01458</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>19.88781151275124</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.07079310236742707</v>
+      </c>
+      <c r="C46">
+        <v>26.05780721344451</v>
+      </c>
+      <c r="D46">
+        <v>34.0890072134445</v>
+      </c>
+      <c r="E46">
+        <v>16.2512</v>
+      </c>
+      <c r="F46">
+        <v>20.2312</v>
+      </c>
+      <c r="G46">
+        <v>12.2</v>
+      </c>
+      <c r="H46">
+        <v>42</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>13</v>
+      </c>
+      <c r="K46">
+        <v>6.63</v>
+      </c>
+      <c r="L46">
+        <v>6.37</v>
+      </c>
+      <c r="M46">
+        <v>0.3277454399999999</v>
+      </c>
+      <c r="N46">
+        <v>6.04225456</v>
+      </c>
+      <c r="O46">
+        <v>0.604225456</v>
+      </c>
+      <c r="P46">
+        <v>5.438029104</v>
+      </c>
+      <c r="Q46">
+        <v>12.068029104</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.114960539941834</v>
+      </c>
+      <c r="T46">
+        <v>1.686117775046941</v>
+      </c>
+      <c r="U46">
+        <v>0.0162</v>
+      </c>
+      <c r="V46">
+        <v>0.1</v>
+      </c>
+      <c r="W46">
+        <v>0.01458</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>19.43581579655235</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.07078400916411384</v>
+      </c>
+      <c r="C47">
+        <v>25.59931482817399</v>
+      </c>
+      <c r="D47">
+        <v>34.09031482817399</v>
+      </c>
+      <c r="E47">
+        <v>16.711</v>
+      </c>
+      <c r="F47">
+        <v>20.691</v>
+      </c>
+      <c r="G47">
+        <v>12.2</v>
+      </c>
+      <c r="H47">
+        <v>42</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>13</v>
+      </c>
+      <c r="K47">
+        <v>6.63</v>
+      </c>
+      <c r="L47">
+        <v>6.37</v>
+      </c>
+      <c r="M47">
+        <v>0.3351941999999999</v>
+      </c>
+      <c r="N47">
+        <v>6.0348058</v>
+      </c>
+      <c r="O47">
+        <v>0.60348058</v>
+      </c>
+      <c r="P47">
+        <v>5.43132522</v>
+      </c>
+      <c r="Q47">
+        <v>12.06132522</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1167691075711161</v>
+      </c>
+      <c r="T47">
+        <v>1.714978672679924</v>
+      </c>
+      <c r="U47">
+        <v>0.0162</v>
+      </c>
+      <c r="V47">
+        <v>0.1</v>
+      </c>
+      <c r="W47">
+        <v>0.01458</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>19.00390877885119</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.07077491596080064</v>
+      </c>
+      <c r="C48">
+        <v>25.14082254322448</v>
+      </c>
+      <c r="D48">
+        <v>34.09162254322447</v>
+      </c>
+      <c r="E48">
+        <v>17.1708</v>
+      </c>
+      <c r="F48">
+        <v>21.1508</v>
+      </c>
+      <c r="G48">
+        <v>12.2</v>
+      </c>
+      <c r="H48">
+        <v>42</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>13</v>
+      </c>
+      <c r="K48">
+        <v>6.63</v>
+      </c>
+      <c r="L48">
+        <v>6.37</v>
+      </c>
+      <c r="M48">
+        <v>0.34264296</v>
+      </c>
+      <c r="N48">
+        <v>6.02735704</v>
+      </c>
+      <c r="O48">
+        <v>0.6027357040000001</v>
+      </c>
+      <c r="P48">
+        <v>5.424621336</v>
+      </c>
+      <c r="Q48">
+        <v>12.054621336</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1186446591866678</v>
+      </c>
+      <c r="T48">
+        <v>1.744908492447462</v>
+      </c>
+      <c r="U48">
+        <v>0.0162</v>
+      </c>
+      <c r="V48">
+        <v>0.1</v>
+      </c>
+      <c r="W48">
+        <v>0.01458</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>18.59078032713703</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.07076582275748744</v>
+      </c>
+      <c r="C49">
+        <v>24.68233035860753</v>
+      </c>
+      <c r="D49">
+        <v>34.09293035860753</v>
+      </c>
+      <c r="E49">
+        <v>17.6306</v>
+      </c>
+      <c r="F49">
+        <v>21.6106</v>
+      </c>
+      <c r="G49">
+        <v>12.2</v>
+      </c>
+      <c r="H49">
+        <v>42</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>13</v>
+      </c>
+      <c r="K49">
+        <v>6.63</v>
+      </c>
+      <c r="L49">
+        <v>6.37</v>
+      </c>
+      <c r="M49">
+        <v>0.35009172</v>
+      </c>
+      <c r="N49">
+        <v>6.01990828</v>
+      </c>
+      <c r="O49">
+        <v>0.601990828</v>
+      </c>
+      <c r="P49">
+        <v>5.417917452</v>
+      </c>
+      <c r="Q49">
+        <v>12.047917452</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.120590986334882</v>
+      </c>
+      <c r="T49">
+        <v>1.775967739376039</v>
+      </c>
+      <c r="U49">
+        <v>0.0162</v>
+      </c>
+      <c r="V49">
+        <v>0.1</v>
+      </c>
+      <c r="W49">
+        <v>0.01458</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>18.19523180953837</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.07075672955417422</v>
+      </c>
+      <c r="C50">
+        <v>24.22383827433469</v>
+      </c>
+      <c r="D50">
+        <v>34.09423827433469</v>
+      </c>
+      <c r="E50">
+        <v>18.0904</v>
+      </c>
+      <c r="F50">
+        <v>22.0704</v>
+      </c>
+      <c r="G50">
+        <v>12.2</v>
+      </c>
+      <c r="H50">
+        <v>42</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>13</v>
+      </c>
+      <c r="K50">
+        <v>6.63</v>
+      </c>
+      <c r="L50">
+        <v>6.37</v>
+      </c>
+      <c r="M50">
+        <v>0.35754048</v>
+      </c>
+      <c r="N50">
+        <v>6.01245952</v>
+      </c>
+      <c r="O50">
+        <v>0.6012459520000001</v>
+      </c>
+      <c r="P50">
+        <v>5.411213568</v>
+      </c>
+      <c r="Q50">
+        <v>12.041213568</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1226121722195658</v>
+      </c>
+      <c r="T50">
+        <v>1.808221572724946</v>
+      </c>
+      <c r="U50">
+        <v>0.0162</v>
+      </c>
+      <c r="V50">
+        <v>0.1</v>
+      </c>
+      <c r="W50">
+        <v>0.01458</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>17.81616448017299</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.07074763635086102</v>
+      </c>
+      <c r="C51">
+        <v>23.76534629041751</v>
+      </c>
+      <c r="D51">
+        <v>34.0955462904175</v>
+      </c>
+      <c r="E51">
+        <v>18.5502</v>
+      </c>
+      <c r="F51">
+        <v>22.5302</v>
+      </c>
+      <c r="G51">
+        <v>12.2</v>
+      </c>
+      <c r="H51">
+        <v>42</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>13</v>
+      </c>
+      <c r="K51">
+        <v>6.63</v>
+      </c>
+      <c r="L51">
+        <v>6.37</v>
+      </c>
+      <c r="M51">
+        <v>0.3649892399999999</v>
+      </c>
+      <c r="N51">
+        <v>6.00501076</v>
+      </c>
+      <c r="O51">
+        <v>0.600501076</v>
+      </c>
+      <c r="P51">
+        <v>5.404509684000001</v>
+      </c>
+      <c r="Q51">
+        <v>12.034509684</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1247126202958059</v>
+      </c>
+      <c r="T51">
+        <v>1.841740262283614</v>
+      </c>
+      <c r="U51">
+        <v>0.0162</v>
+      </c>
+      <c r="V51">
+        <v>0.1</v>
+      </c>
+      <c r="W51">
+        <v>0.01458</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>17.45256928670007</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.07073854314754781</v>
+      </c>
+      <c r="C52">
+        <v>23.30685440686753</v>
+      </c>
+      <c r="D52">
+        <v>34.09685440686753</v>
+      </c>
+      <c r="E52">
+        <v>19.01</v>
+      </c>
+      <c r="F52">
+        <v>22.99</v>
+      </c>
+      <c r="G52">
+        <v>12.2</v>
+      </c>
+      <c r="H52">
+        <v>42</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>13</v>
+      </c>
+      <c r="K52">
+        <v>6.63</v>
+      </c>
+      <c r="L52">
+        <v>6.37</v>
+      </c>
+      <c r="M52">
+        <v>0.3724379999999999</v>
+      </c>
+      <c r="N52">
+        <v>5.997562</v>
+      </c>
+      <c r="O52">
+        <v>0.5997562000000001</v>
+      </c>
+      <c r="P52">
+        <v>5.3978058</v>
+      </c>
+      <c r="Q52">
+        <v>12.0278058</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1268970862950956</v>
+      </c>
+      <c r="T52">
+        <v>1.876599699424629</v>
+      </c>
+      <c r="U52">
+        <v>0.0162</v>
+      </c>
+      <c r="V52">
+        <v>0.1</v>
+      </c>
+      <c r="W52">
+        <v>0.01458</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>17.10351790096607</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.07072944994423458</v>
+      </c>
+      <c r="C53">
+        <v>22.84836262369631</v>
+      </c>
+      <c r="D53">
+        <v>34.09816262369631</v>
+      </c>
+      <c r="E53">
+        <v>19.4698</v>
+      </c>
+      <c r="F53">
+        <v>23.4498</v>
+      </c>
+      <c r="G53">
+        <v>12.2</v>
+      </c>
+      <c r="H53">
+        <v>42</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>13</v>
+      </c>
+      <c r="K53">
+        <v>6.63</v>
+      </c>
+      <c r="L53">
+        <v>6.37</v>
+      </c>
+      <c r="M53">
+        <v>0.37988676</v>
+      </c>
+      <c r="N53">
+        <v>5.99011324</v>
+      </c>
+      <c r="O53">
+        <v>0.599011324</v>
+      </c>
+      <c r="P53">
+        <v>5.391101916</v>
+      </c>
+      <c r="Q53">
+        <v>12.021101916</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1291707141719073</v>
+      </c>
+      <c r="T53">
+        <v>1.912881970734664</v>
+      </c>
+      <c r="U53">
+        <v>0.0162</v>
+      </c>
+      <c r="V53">
+        <v>0.1</v>
+      </c>
+      <c r="W53">
+        <v>0.01458</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>16.76815480486869</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.07072035674092139</v>
+      </c>
+      <c r="C54">
+        <v>22.3898709409154</v>
+      </c>
+      <c r="D54">
+        <v>34.0994709409154</v>
+      </c>
+      <c r="E54">
+        <v>19.9296</v>
+      </c>
+      <c r="F54">
+        <v>23.9096</v>
+      </c>
+      <c r="G54">
+        <v>12.2</v>
+      </c>
+      <c r="H54">
+        <v>42</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>13</v>
+      </c>
+      <c r="K54">
+        <v>6.63</v>
+      </c>
+      <c r="L54">
+        <v>6.37</v>
+      </c>
+      <c r="M54">
+        <v>0.3873355199999999</v>
+      </c>
+      <c r="N54">
+        <v>5.98266448</v>
+      </c>
+      <c r="O54">
+        <v>0.5982664480000001</v>
+      </c>
+      <c r="P54">
+        <v>5.384398032</v>
+      </c>
+      <c r="Q54">
+        <v>12.014398032</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1315390765435862</v>
+      </c>
+      <c r="T54">
+        <v>1.950676003349285</v>
+      </c>
+      <c r="U54">
+        <v>0.0162</v>
+      </c>
+      <c r="V54">
+        <v>0.1</v>
+      </c>
+      <c r="W54">
+        <v>0.01458</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>16.44569028939045</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.07071126353760818</v>
+      </c>
+      <c r="C55">
+        <v>21.93137935853636</v>
+      </c>
+      <c r="D55">
+        <v>34.10077935853636</v>
+      </c>
+      <c r="E55">
+        <v>20.3894</v>
+      </c>
+      <c r="F55">
+        <v>24.3694</v>
+      </c>
+      <c r="G55">
+        <v>12.2</v>
+      </c>
+      <c r="H55">
+        <v>42</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>13</v>
+      </c>
+      <c r="K55">
+        <v>6.63</v>
+      </c>
+      <c r="L55">
+        <v>6.37</v>
+      </c>
+      <c r="M55">
+        <v>0.39478428</v>
+      </c>
+      <c r="N55">
+        <v>5.97521572</v>
+      </c>
+      <c r="O55">
+        <v>0.5975215720000001</v>
+      </c>
+      <c r="P55">
+        <v>5.377694148000001</v>
+      </c>
+      <c r="Q55">
+        <v>12.007694148</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1340082202927834</v>
+      </c>
+      <c r="T55">
+        <v>1.990078292670911</v>
+      </c>
+      <c r="U55">
+        <v>0.0162</v>
+      </c>
+      <c r="V55">
+        <v>0.1</v>
+      </c>
+      <c r="W55">
+        <v>0.01458</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>16.13539424619441</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.07070217033429498</v>
+      </c>
+      <c r="C56">
+        <v>21.47288787657074</v>
+      </c>
+      <c r="D56">
+        <v>34.10208787657074</v>
+      </c>
+      <c r="E56">
+        <v>20.8492</v>
+      </c>
+      <c r="F56">
+        <v>24.8292</v>
+      </c>
+      <c r="G56">
+        <v>12.2</v>
+      </c>
+      <c r="H56">
+        <v>42</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>13</v>
+      </c>
+      <c r="K56">
+        <v>6.63</v>
+      </c>
+      <c r="L56">
+        <v>6.37</v>
+      </c>
+      <c r="M56">
+        <v>0.40223304</v>
+      </c>
+      <c r="N56">
+        <v>5.967766960000001</v>
+      </c>
+      <c r="O56">
+        <v>0.5967766960000001</v>
+      </c>
+      <c r="P56">
+        <v>5.370990264</v>
+      </c>
+      <c r="Q56">
+        <v>12.000990264</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1365847181180326</v>
+      </c>
+      <c r="T56">
+        <v>2.031193725006521</v>
+      </c>
+      <c r="U56">
+        <v>0.0162</v>
+      </c>
+      <c r="V56">
+        <v>0.1</v>
+      </c>
+      <c r="W56">
+        <v>0.01458</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>15.83659064904266</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.07069307713098177</v>
+      </c>
+      <c r="C57">
+        <v>21.01439649503011</v>
+      </c>
+      <c r="D57">
+        <v>34.10339649503011</v>
+      </c>
+      <c r="E57">
+        <v>21.309</v>
+      </c>
+      <c r="F57">
+        <v>25.289</v>
+      </c>
+      <c r="G57">
+        <v>12.2</v>
+      </c>
+      <c r="H57">
+        <v>42</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>13</v>
+      </c>
+      <c r="K57">
+        <v>6.63</v>
+      </c>
+      <c r="L57">
+        <v>6.37</v>
+      </c>
+      <c r="M57">
+        <v>0.4096818</v>
+      </c>
+      <c r="N57">
+        <v>5.9603182</v>
+      </c>
+      <c r="O57">
+        <v>0.59603182</v>
+      </c>
+      <c r="P57">
+        <v>5.364286379999999</v>
+      </c>
+      <c r="Q57">
+        <v>11.99428638</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1392757269577373</v>
+      </c>
+      <c r="T57">
+        <v>2.074136509890379</v>
+      </c>
+      <c r="U57">
+        <v>0.0162</v>
+      </c>
+      <c r="V57">
+        <v>0.1</v>
+      </c>
+      <c r="W57">
+        <v>0.01458</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>15.54865263724188</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.07068398392766854</v>
+      </c>
+      <c r="C58">
+        <v>20.55590521392603</v>
+      </c>
+      <c r="D58">
+        <v>34.10470521392603</v>
+      </c>
+      <c r="E58">
+        <v>21.7688</v>
+      </c>
+      <c r="F58">
+        <v>25.7488</v>
+      </c>
+      <c r="G58">
+        <v>12.2</v>
+      </c>
+      <c r="H58">
+        <v>42</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>13</v>
+      </c>
+      <c r="K58">
+        <v>6.63</v>
+      </c>
+      <c r="L58">
+        <v>6.37</v>
+      </c>
+      <c r="M58">
+        <v>0.41713056</v>
+      </c>
+      <c r="N58">
+        <v>5.95286944</v>
+      </c>
+      <c r="O58">
+        <v>0.595286944</v>
+      </c>
+      <c r="P58">
+        <v>5.357582496</v>
+      </c>
+      <c r="Q58">
+        <v>11.987582496</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1420890543810649</v>
+      </c>
+      <c r="T58">
+        <v>2.119031239541686</v>
+      </c>
+      <c r="U58">
+        <v>0.0162</v>
+      </c>
+      <c r="V58">
+        <v>0.1</v>
+      </c>
+      <c r="W58">
+        <v>0.01458</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>15.27099812586256</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.07067489072435534</v>
+      </c>
+      <c r="C59">
+        <v>20.09741403327007</v>
+      </c>
+      <c r="D59">
+        <v>34.10601403327007</v>
+      </c>
+      <c r="E59">
+        <v>22.2286</v>
+      </c>
+      <c r="F59">
+        <v>26.2086</v>
+      </c>
+      <c r="G59">
+        <v>12.2</v>
+      </c>
+      <c r="H59">
+        <v>42</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>13</v>
+      </c>
+      <c r="K59">
+        <v>6.63</v>
+      </c>
+      <c r="L59">
+        <v>6.37</v>
+      </c>
+      <c r="M59">
+        <v>0.42457932</v>
+      </c>
+      <c r="N59">
+        <v>5.94542068</v>
+      </c>
+      <c r="O59">
+        <v>0.594542068</v>
+      </c>
+      <c r="P59">
+        <v>5.350878612</v>
+      </c>
+      <c r="Q59">
+        <v>11.980878612</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1450332342426869</v>
+      </c>
+      <c r="T59">
+        <v>2.166014096153519</v>
+      </c>
+      <c r="U59">
+        <v>0.0162</v>
+      </c>
+      <c r="V59">
+        <v>0.1</v>
+      </c>
+      <c r="W59">
+        <v>0.01458</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>15.00308587804041</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.07066579752104214</v>
+      </c>
+      <c r="C60">
+        <v>19.63892295307378</v>
+      </c>
+      <c r="D60">
+        <v>34.10732295307378</v>
+      </c>
+      <c r="E60">
+        <v>22.68839999999999</v>
+      </c>
+      <c r="F60">
+        <v>26.66839999999999</v>
+      </c>
+      <c r="G60">
+        <v>12.2</v>
+      </c>
+      <c r="H60">
+        <v>42</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>13</v>
+      </c>
+      <c r="K60">
+        <v>6.63</v>
+      </c>
+      <c r="L60">
+        <v>6.37</v>
+      </c>
+      <c r="M60">
+        <v>0.4320280799999999</v>
+      </c>
+      <c r="N60">
+        <v>5.93797192</v>
+      </c>
+      <c r="O60">
+        <v>0.593797192</v>
+      </c>
+      <c r="P60">
+        <v>5.344174728</v>
+      </c>
+      <c r="Q60">
+        <v>11.974174728</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1481176131453384</v>
+      </c>
+      <c r="T60">
+        <v>2.215234231651629</v>
+      </c>
+      <c r="U60">
+        <v>0.0162</v>
+      </c>
+      <c r="V60">
+        <v>0.1</v>
+      </c>
+      <c r="W60">
+        <v>0.01458</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>14.74441198359144</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.07065670431772893</v>
+      </c>
+      <c r="C61">
+        <v>19.18043197334873</v>
+      </c>
+      <c r="D61">
+        <v>34.10863197334872</v>
+      </c>
+      <c r="E61">
+        <v>23.1482</v>
+      </c>
+      <c r="F61">
+        <v>27.1282</v>
+      </c>
+      <c r="G61">
+        <v>12.2</v>
+      </c>
+      <c r="H61">
+        <v>42</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>13</v>
+      </c>
+      <c r="K61">
+        <v>6.63</v>
+      </c>
+      <c r="L61">
+        <v>6.37</v>
+      </c>
+      <c r="M61">
+        <v>0.4394768399999999</v>
+      </c>
+      <c r="N61">
+        <v>5.93052316</v>
+      </c>
+      <c r="O61">
+        <v>0.593052316</v>
+      </c>
+      <c r="P61">
+        <v>5.337470844</v>
+      </c>
+      <c r="Q61">
+        <v>11.967470844</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1513524495554364</v>
+      </c>
+      <c r="T61">
+        <v>2.266855349369159</v>
+      </c>
+      <c r="U61">
+        <v>0.0162</v>
+      </c>
+      <c r="V61">
+        <v>0.1</v>
+      </c>
+      <c r="W61">
+        <v>0.01458</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>14.49450669573396</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.07064761111441573</v>
+      </c>
+      <c r="C62">
+        <v>18.72194109410648</v>
+      </c>
+      <c r="D62">
+        <v>34.10994109410648</v>
+      </c>
+      <c r="E62">
+        <v>23.608</v>
+      </c>
+      <c r="F62">
+        <v>27.588</v>
+      </c>
+      <c r="G62">
+        <v>12.2</v>
+      </c>
+      <c r="H62">
+        <v>42</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>13</v>
+      </c>
+      <c r="K62">
+        <v>6.63</v>
+      </c>
+      <c r="L62">
+        <v>6.37</v>
+      </c>
+      <c r="M62">
+        <v>0.4469255999999999</v>
+      </c>
+      <c r="N62">
+        <v>5.9230744</v>
+      </c>
+      <c r="O62">
+        <v>0.59230744</v>
+      </c>
+      <c r="P62">
+        <v>5.33076696</v>
+      </c>
+      <c r="Q62">
+        <v>11.96076696</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1547490277860393</v>
+      </c>
+      <c r="T62">
+        <v>2.321057522972567</v>
+      </c>
+      <c r="U62">
+        <v>0.0162</v>
+      </c>
+      <c r="V62">
+        <v>0.1</v>
+      </c>
+      <c r="W62">
+        <v>0.01458</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>14.25293158413839</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.07063851791110252</v>
+      </c>
+      <c r="C63">
+        <v>18.26345031535862</v>
+      </c>
+      <c r="D63">
+        <v>34.11125031535862</v>
+      </c>
+      <c r="E63">
+        <v>24.0678</v>
+      </c>
+      <c r="F63">
+        <v>28.0478</v>
+      </c>
+      <c r="G63">
+        <v>12.2</v>
+      </c>
+      <c r="H63">
+        <v>42</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>13</v>
+      </c>
+      <c r="K63">
+        <v>6.63</v>
+      </c>
+      <c r="L63">
+        <v>6.37</v>
+      </c>
+      <c r="M63">
+        <v>0.45437436</v>
+      </c>
+      <c r="N63">
+        <v>5.91562564</v>
+      </c>
+      <c r="O63">
+        <v>0.5915625640000001</v>
+      </c>
+      <c r="P63">
+        <v>5.324063076</v>
+      </c>
+      <c r="Q63">
+        <v>11.954063076</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1583197895156475</v>
+      </c>
+      <c r="T63">
+        <v>2.378039295222303</v>
+      </c>
+      <c r="U63">
+        <v>0.0162</v>
+      </c>
+      <c r="V63">
+        <v>0.1</v>
+      </c>
+      <c r="W63">
+        <v>0.01458</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>14.01927696800497</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.07062942470778931</v>
+      </c>
+      <c r="C64">
+        <v>17.80495963711672</v>
+      </c>
+      <c r="D64">
+        <v>34.11255963711672</v>
+      </c>
+      <c r="E64">
+        <v>24.5276</v>
+      </c>
+      <c r="F64">
+        <v>28.5076</v>
+      </c>
+      <c r="G64">
+        <v>12.2</v>
+      </c>
+      <c r="H64">
+        <v>42</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>13</v>
+      </c>
+      <c r="K64">
+        <v>6.63</v>
+      </c>
+      <c r="L64">
+        <v>6.37</v>
+      </c>
+      <c r="M64">
+        <v>0.4618231199999999</v>
+      </c>
+      <c r="N64">
+        <v>5.90817688</v>
+      </c>
+      <c r="O64">
+        <v>0.590817688</v>
+      </c>
+      <c r="P64">
+        <v>5.317359192</v>
+      </c>
+      <c r="Q64">
+        <v>11.947359192</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1620784860731297</v>
+      </c>
+      <c r="T64">
+        <v>2.438020108116761</v>
+      </c>
+      <c r="U64">
+        <v>0.0162</v>
+      </c>
+      <c r="V64">
+        <v>0.1</v>
+      </c>
+      <c r="W64">
+        <v>0.01458</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>13.79315959755328</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.07152753150447609</v>
+      </c>
+      <c r="C65">
+        <v>17.21632554071824</v>
+      </c>
+      <c r="D65">
+        <v>33.98372554071825</v>
+      </c>
+      <c r="E65">
+        <v>24.9874</v>
+      </c>
+      <c r="F65">
+        <v>28.9674</v>
+      </c>
+      <c r="G65">
+        <v>12.2</v>
+      </c>
+      <c r="H65">
+        <v>42</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>13</v>
+      </c>
+      <c r="K65">
+        <v>6.63</v>
+      </c>
+      <c r="L65">
+        <v>6.37</v>
+      </c>
+      <c r="M65">
+        <v>0.51561972</v>
+      </c>
+      <c r="N65">
+        <v>5.85438028</v>
+      </c>
+      <c r="O65">
+        <v>0.585438028</v>
+      </c>
+      <c r="P65">
+        <v>5.268942252</v>
+      </c>
+      <c r="Q65">
+        <v>11.898942252</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1660403554175029</v>
+      </c>
+      <c r="T65">
+        <v>2.501243127113623</v>
+      </c>
+      <c r="U65">
+        <v>0.0178</v>
+      </c>
+      <c r="V65">
+        <v>0.1</v>
+      </c>
+      <c r="W65">
+        <v>0.01602</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>12.35406589957421</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.07153283830116289</v>
+      </c>
+      <c r="C66">
+        <v>16.75576716875298</v>
+      </c>
+      <c r="D66">
+        <v>33.98296716875299</v>
+      </c>
+      <c r="E66">
+        <v>25.4472</v>
+      </c>
+      <c r="F66">
+        <v>29.4272</v>
+      </c>
+      <c r="G66">
+        <v>12.2</v>
+      </c>
+      <c r="H66">
+        <v>42</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>13</v>
+      </c>
+      <c r="K66">
+        <v>6.63</v>
+      </c>
+      <c r="L66">
+        <v>6.37</v>
+      </c>
+      <c r="M66">
+        <v>0.52380416</v>
+      </c>
+      <c r="N66">
+        <v>5.84619584</v>
+      </c>
+      <c r="O66">
+        <v>0.584619584</v>
+      </c>
+      <c r="P66">
+        <v>5.261576256</v>
+      </c>
+      <c r="Q66">
+        <v>11.891576256</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1702223286143414</v>
+      </c>
+      <c r="T66">
+        <v>2.567978536054755</v>
+      </c>
+      <c r="U66">
+        <v>0.0178</v>
+      </c>
+      <c r="V66">
+        <v>0.1</v>
+      </c>
+      <c r="W66">
+        <v>0.01602</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>12.16103361989336</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.07153814509784968</v>
+      </c>
+      <c r="C67">
+        <v>16.29520883063422</v>
+      </c>
+      <c r="D67">
+        <v>33.98220883063422</v>
+      </c>
+      <c r="E67">
+        <v>25.907</v>
+      </c>
+      <c r="F67">
+        <v>29.887</v>
+      </c>
+      <c r="G67">
+        <v>12.2</v>
+      </c>
+      <c r="H67">
+        <v>42</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>13</v>
+      </c>
+      <c r="K67">
+        <v>6.63</v>
+      </c>
+      <c r="L67">
+        <v>6.37</v>
+      </c>
+      <c r="M67">
+        <v>0.5319886</v>
+      </c>
+      <c r="N67">
+        <v>5.8380114</v>
+      </c>
+      <c r="O67">
+        <v>0.5838011400000001</v>
+      </c>
+      <c r="P67">
+        <v>5.25421026</v>
+      </c>
+      <c r="Q67">
+        <v>11.88421026</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.174643271708142</v>
+      </c>
+      <c r="T67">
+        <v>2.63852739693538</v>
+      </c>
+      <c r="U67">
+        <v>0.0178</v>
+      </c>
+      <c r="V67">
+        <v>0.1</v>
+      </c>
+      <c r="W67">
+        <v>0.01602</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>11.97394079497192</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.07154345189453647</v>
+      </c>
+      <c r="C68">
+        <v>15.83465052635971</v>
+      </c>
+      <c r="D68">
+        <v>33.98145052635972</v>
+      </c>
+      <c r="E68">
+        <v>26.3668</v>
+      </c>
+      <c r="F68">
+        <v>30.3468</v>
+      </c>
+      <c r="G68">
+        <v>12.2</v>
+      </c>
+      <c r="H68">
+        <v>42</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>13</v>
+      </c>
+      <c r="K68">
+        <v>6.63</v>
+      </c>
+      <c r="L68">
+        <v>6.37</v>
+      </c>
+      <c r="M68">
+        <v>0.54017304</v>
+      </c>
+      <c r="N68">
+        <v>5.82982696</v>
+      </c>
+      <c r="O68">
+        <v>0.5829826960000001</v>
+      </c>
+      <c r="P68">
+        <v>5.246844264</v>
+      </c>
+      <c r="Q68">
+        <v>11.876844264</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1793242702780485</v>
+      </c>
+      <c r="T68">
+        <v>2.713226190808983</v>
+      </c>
+      <c r="U68">
+        <v>0.0178</v>
+      </c>
+      <c r="V68">
+        <v>0.1</v>
+      </c>
+      <c r="W68">
+        <v>0.01602</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>11.79251744959356</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.07154875869122326</v>
+      </c>
+      <c r="C69">
+        <v>15.37409225592717</v>
+      </c>
+      <c r="D69">
+        <v>33.98069225592717</v>
+      </c>
+      <c r="E69">
+        <v>26.8266</v>
+      </c>
+      <c r="F69">
+        <v>30.8066</v>
+      </c>
+      <c r="G69">
+        <v>12.2</v>
+      </c>
+      <c r="H69">
+        <v>42</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>13</v>
+      </c>
+      <c r="K69">
+        <v>6.63</v>
+      </c>
+      <c r="L69">
+        <v>6.37</v>
+      </c>
+      <c r="M69">
+        <v>0.54835748</v>
+      </c>
+      <c r="N69">
+        <v>5.82164252</v>
+      </c>
+      <c r="O69">
+        <v>0.582164252</v>
+      </c>
+      <c r="P69">
+        <v>5.239478268</v>
+      </c>
+      <c r="Q69">
+        <v>11.869478268</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1842889657309796</v>
+      </c>
+      <c r="T69">
+        <v>2.79245218431129</v>
+      </c>
+      <c r="U69">
+        <v>0.0178</v>
+      </c>
+      <c r="V69">
+        <v>0.1</v>
+      </c>
+      <c r="W69">
+        <v>0.01602</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>11.6165097264653</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.07155406548791006</v>
+      </c>
+      <c r="C70">
+        <v>14.91353401933434</v>
+      </c>
+      <c r="D70">
+        <v>33.97993401933434</v>
+      </c>
+      <c r="E70">
+        <v>27.2864</v>
+      </c>
+      <c r="F70">
+        <v>31.2664</v>
+      </c>
+      <c r="G70">
+        <v>12.2</v>
+      </c>
+      <c r="H70">
+        <v>42</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>13</v>
+      </c>
+      <c r="K70">
+        <v>6.63</v>
+      </c>
+      <c r="L70">
+        <v>6.37</v>
+      </c>
+      <c r="M70">
+        <v>0.55654192</v>
+      </c>
+      <c r="N70">
+        <v>5.81345808</v>
+      </c>
+      <c r="O70">
+        <v>0.581345808</v>
+      </c>
+      <c r="P70">
+        <v>5.232112272</v>
+      </c>
+      <c r="Q70">
+        <v>11.862112272</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.189563954649719</v>
+      </c>
+      <c r="T70">
+        <v>2.876629802407491</v>
+      </c>
+      <c r="U70">
+        <v>0.0178</v>
+      </c>
+      <c r="V70">
+        <v>0.1</v>
+      </c>
+      <c r="W70">
+        <v>0.01602</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>11.4456787010761</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.07155937228459684</v>
+      </c>
+      <c r="C71">
+        <v>14.45297581657896</v>
+      </c>
+      <c r="D71">
+        <v>33.97917581657896</v>
+      </c>
+      <c r="E71">
+        <v>27.7462</v>
+      </c>
+      <c r="F71">
+        <v>31.7262</v>
+      </c>
+      <c r="G71">
+        <v>12.2</v>
+      </c>
+      <c r="H71">
+        <v>42</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>13</v>
+      </c>
+      <c r="K71">
+        <v>6.63</v>
+      </c>
+      <c r="L71">
+        <v>6.37</v>
+      </c>
+      <c r="M71">
+        <v>0.56472636</v>
+      </c>
+      <c r="N71">
+        <v>5.80527364</v>
+      </c>
+      <c r="O71">
+        <v>0.580527364</v>
+      </c>
+      <c r="P71">
+        <v>5.224746276</v>
+      </c>
+      <c r="Q71">
+        <v>11.854746276</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1951792654341834</v>
+      </c>
+      <c r="T71">
+        <v>2.966238234574413</v>
+      </c>
+      <c r="U71">
+        <v>0.0178</v>
+      </c>
+      <c r="V71">
+        <v>0.1</v>
+      </c>
+      <c r="W71">
+        <v>0.01602</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>11.27979929961123</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.07156467908128362</v>
+      </c>
+      <c r="C72">
+        <v>13.99241764765876</v>
+      </c>
+      <c r="D72">
+        <v>33.97841764765876</v>
+      </c>
+      <c r="E72">
+        <v>28.206</v>
+      </c>
+      <c r="F72">
+        <v>32.186</v>
+      </c>
+      <c r="G72">
+        <v>12.2</v>
+      </c>
+      <c r="H72">
+        <v>42</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>13</v>
+      </c>
+      <c r="K72">
+        <v>6.63</v>
+      </c>
+      <c r="L72">
+        <v>6.37</v>
+      </c>
+      <c r="M72">
+        <v>0.5729107999999999</v>
+      </c>
+      <c r="N72">
+        <v>5.7970892</v>
+      </c>
+      <c r="O72">
+        <v>0.5797089200000001</v>
+      </c>
+      <c r="P72">
+        <v>5.21738028</v>
+      </c>
+      <c r="Q72">
+        <v>11.84738028</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.2011689302709455</v>
+      </c>
+      <c r="T72">
+        <v>3.061820562219131</v>
+      </c>
+      <c r="U72">
+        <v>0.0178</v>
+      </c>
+      <c r="V72">
+        <v>0.1</v>
+      </c>
+      <c r="W72">
+        <v>0.01602</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>11.11865930961679</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.07156998587797044</v>
+      </c>
+      <c r="C73">
+        <v>13.53185951257147</v>
+      </c>
+      <c r="D73">
+        <v>33.97765951257146</v>
+      </c>
+      <c r="E73">
+        <v>28.66579999999999</v>
+      </c>
+      <c r="F73">
+        <v>32.64579999999999</v>
+      </c>
+      <c r="G73">
+        <v>12.2</v>
+      </c>
+      <c r="H73">
+        <v>42</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>13</v>
+      </c>
+      <c r="K73">
+        <v>6.63</v>
+      </c>
+      <c r="L73">
+        <v>6.37</v>
+      </c>
+      <c r="M73">
+        <v>0.5810952399999999</v>
+      </c>
+      <c r="N73">
+        <v>5.78890476</v>
+      </c>
+      <c r="O73">
+        <v>0.5788904760000001</v>
+      </c>
+      <c r="P73">
+        <v>5.210014284000001</v>
+      </c>
+      <c r="Q73">
+        <v>11.840014284</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2075716754412774</v>
+      </c>
+      <c r="T73">
+        <v>3.163994774529002</v>
+      </c>
+      <c r="U73">
+        <v>0.0178</v>
+      </c>
+      <c r="V73">
+        <v>0.1</v>
+      </c>
+      <c r="W73">
+        <v>0.01602</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>10.96205847427007</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.07157529267465723</v>
+      </c>
+      <c r="C74">
+        <v>13.07130141131483</v>
+      </c>
+      <c r="D74">
+        <v>33.97690141131483</v>
+      </c>
+      <c r="E74">
+        <v>29.1256</v>
+      </c>
+      <c r="F74">
+        <v>33.1056</v>
+      </c>
+      <c r="G74">
+        <v>12.2</v>
+      </c>
+      <c r="H74">
+        <v>42</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>13</v>
+      </c>
+      <c r="K74">
+        <v>6.63</v>
+      </c>
+      <c r="L74">
+        <v>6.37</v>
+      </c>
+      <c r="M74">
+        <v>0.5892796799999999</v>
+      </c>
+      <c r="N74">
+        <v>5.78072032</v>
+      </c>
+      <c r="O74">
+        <v>0.578072032</v>
+      </c>
+      <c r="P74">
+        <v>5.202648288000001</v>
+      </c>
+      <c r="Q74">
+        <v>11.832648288</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2144317595523472</v>
+      </c>
+      <c r="T74">
+        <v>3.273467144861006</v>
+      </c>
+      <c r="U74">
+        <v>0.0178</v>
+      </c>
+      <c r="V74">
+        <v>0.1</v>
+      </c>
+      <c r="W74">
+        <v>0.01602</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>10.80980766212743</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.07302599947134401</v>
+      </c>
+      <c r="C75">
+        <v>12.40552197261469</v>
+      </c>
+      <c r="D75">
+        <v>33.77092197261469</v>
+      </c>
+      <c r="E75">
+        <v>29.5854</v>
+      </c>
+      <c r="F75">
+        <v>33.5654</v>
+      </c>
+      <c r="G75">
+        <v>12.2</v>
+      </c>
+      <c r="H75">
+        <v>42</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>13</v>
+      </c>
+      <c r="K75">
+        <v>6.63</v>
+      </c>
+      <c r="L75">
+        <v>6.37</v>
+      </c>
+      <c r="M75">
+        <v>0.6713079999999998</v>
+      </c>
+      <c r="N75">
+        <v>5.698692</v>
+      </c>
+      <c r="O75">
+        <v>0.5698692000000001</v>
+      </c>
+      <c r="P75">
+        <v>5.1288228</v>
+      </c>
+      <c r="Q75">
+        <v>11.7588228</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2217999980420149</v>
+      </c>
+      <c r="T75">
+        <v>3.391048579662048</v>
+      </c>
+      <c r="U75">
+        <v>0.02</v>
+      </c>
+      <c r="V75">
+        <v>0.1</v>
+      </c>
+      <c r="W75">
+        <v>0.018</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>9.488938013549671</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.0730511062680308</v>
+      </c>
+      <c r="C76">
+        <v>11.94217915239572</v>
+      </c>
+      <c r="D76">
+        <v>33.76737915239572</v>
+      </c>
+      <c r="E76">
+        <v>30.0452</v>
+      </c>
+      <c r="F76">
+        <v>34.0252</v>
+      </c>
+      <c r="G76">
+        <v>12.2</v>
+      </c>
+      <c r="H76">
+        <v>42</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>13</v>
+      </c>
+      <c r="K76">
+        <v>6.63</v>
+      </c>
+      <c r="L76">
+        <v>6.37</v>
+      </c>
+      <c r="M76">
+        <v>0.6805039999999999</v>
+      </c>
+      <c r="N76">
+        <v>5.689496</v>
+      </c>
+      <c r="O76">
+        <v>0.5689496000000001</v>
+      </c>
+      <c r="P76">
+        <v>5.1205464</v>
+      </c>
+      <c r="Q76">
+        <v>11.7505464</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2297350241078108</v>
+      </c>
+      <c r="T76">
+        <v>3.517674740217016</v>
+      </c>
+      <c r="U76">
+        <v>0.02</v>
+      </c>
+      <c r="V76">
+        <v>0.1</v>
+      </c>
+      <c r="W76">
+        <v>0.018</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>9.360709121474674</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.07307621306471759</v>
+      </c>
+      <c r="C77">
+        <v>11.47883707543502</v>
+      </c>
+      <c r="D77">
+        <v>33.76383707543502</v>
+      </c>
+      <c r="E77">
+        <v>30.505</v>
+      </c>
+      <c r="F77">
+        <v>34.485</v>
+      </c>
+      <c r="G77">
+        <v>12.2</v>
+      </c>
+      <c r="H77">
+        <v>42</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>13</v>
+      </c>
+      <c r="K77">
+        <v>6.63</v>
+      </c>
+      <c r="L77">
+        <v>6.37</v>
+      </c>
+      <c r="M77">
+        <v>0.6896999999999999</v>
+      </c>
+      <c r="N77">
+        <v>5.6803</v>
+      </c>
+      <c r="O77">
+        <v>0.56803</v>
+      </c>
+      <c r="P77">
+        <v>5.11227</v>
+      </c>
+      <c r="Q77">
+        <v>11.74227</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2383048522588704</v>
+      </c>
+      <c r="T77">
+        <v>3.654430993616382</v>
+      </c>
+      <c r="U77">
+        <v>0.02</v>
+      </c>
+      <c r="V77">
+        <v>0.1</v>
+      </c>
+      <c r="W77">
+        <v>0.018</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>9.235899666521677</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.0731013198614044</v>
+      </c>
+      <c r="C78">
+        <v>11.01549574149873</v>
+      </c>
+      <c r="D78">
+        <v>33.76029574149872</v>
+      </c>
+      <c r="E78">
+        <v>30.9648</v>
+      </c>
+      <c r="F78">
+        <v>34.9448</v>
+      </c>
+      <c r="G78">
+        <v>12.2</v>
+      </c>
+      <c r="H78">
+        <v>42</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>13</v>
+      </c>
+      <c r="K78">
+        <v>6.63</v>
+      </c>
+      <c r="L78">
+        <v>6.37</v>
+      </c>
+      <c r="M78">
+        <v>0.698896</v>
+      </c>
+      <c r="N78">
+        <v>5.671104</v>
+      </c>
+      <c r="O78">
+        <v>0.5671104</v>
+      </c>
+      <c r="P78">
+        <v>5.1039936</v>
+      </c>
+      <c r="Q78">
+        <v>11.7339936</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2475888327558517</v>
+      </c>
+      <c r="T78">
+        <v>3.802583601465695</v>
+      </c>
+      <c r="U78">
+        <v>0.02</v>
+      </c>
+      <c r="V78">
+        <v>0.1</v>
+      </c>
+      <c r="W78">
+        <v>0.018</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>9.114374670909548</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.07312642665809117</v>
+      </c>
+      <c r="C79">
+        <v>10.55215515035305</v>
+      </c>
+      <c r="D79">
+        <v>33.75675515035304</v>
+      </c>
+      <c r="E79">
+        <v>31.42459999999999</v>
+      </c>
+      <c r="F79">
+        <v>35.40459999999999</v>
+      </c>
+      <c r="G79">
+        <v>12.2</v>
+      </c>
+      <c r="H79">
+        <v>42</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>13</v>
+      </c>
+      <c r="K79">
+        <v>6.63</v>
+      </c>
+      <c r="L79">
+        <v>6.37</v>
+      </c>
+      <c r="M79">
+        <v>0.7080919999999998</v>
+      </c>
+      <c r="N79">
+        <v>5.661908</v>
+      </c>
+      <c r="O79">
+        <v>0.5661908000000001</v>
+      </c>
+      <c r="P79">
+        <v>5.0957172</v>
+      </c>
+      <c r="Q79">
+        <v>11.7257172</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2576801159047443</v>
+      </c>
+      <c r="T79">
+        <v>3.963619044780165</v>
+      </c>
+      <c r="U79">
+        <v>0.02</v>
+      </c>
+      <c r="V79">
+        <v>0.1</v>
+      </c>
+      <c r="W79">
+        <v>0.018</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>8.996006168689947</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.07315153345477797</v>
+      </c>
+      <c r="C80">
+        <v>10.08881530176432</v>
+      </c>
+      <c r="D80">
+        <v>33.75321530176432</v>
+      </c>
+      <c r="E80">
+        <v>31.8844</v>
+      </c>
+      <c r="F80">
+        <v>35.8644</v>
+      </c>
+      <c r="G80">
+        <v>12.2</v>
+      </c>
+      <c r="H80">
+        <v>42</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>13</v>
+      </c>
+      <c r="K80">
+        <v>6.63</v>
+      </c>
+      <c r="L80">
+        <v>6.37</v>
+      </c>
+      <c r="M80">
+        <v>0.7172879999999998</v>
+      </c>
+      <c r="N80">
+        <v>5.652712</v>
+      </c>
+      <c r="O80">
+        <v>0.5652712000000001</v>
+      </c>
+      <c r="P80">
+        <v>5.0874408</v>
+      </c>
+      <c r="Q80">
+        <v>11.7174408</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.268688788430809</v>
+      </c>
+      <c r="T80">
+        <v>4.139294073850497</v>
+      </c>
+      <c r="U80">
+        <v>0.02</v>
+      </c>
+      <c r="V80">
+        <v>0.1</v>
+      </c>
+      <c r="W80">
+        <v>0.018</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>8.880672756270844</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.07317664025146477</v>
+      </c>
+      <c r="C81">
+        <v>9.625476195498969</v>
+      </c>
+      <c r="D81">
+        <v>33.74967619549896</v>
+      </c>
+      <c r="E81">
+        <v>32.3442</v>
+      </c>
+      <c r="F81">
+        <v>36.3242</v>
+      </c>
+      <c r="G81">
+        <v>12.2</v>
+      </c>
+      <c r="H81">
+        <v>42</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>13</v>
+      </c>
+      <c r="K81">
+        <v>6.63</v>
+      </c>
+      <c r="L81">
+        <v>6.37</v>
+      </c>
+      <c r="M81">
+        <v>0.7264839999999998</v>
+      </c>
+      <c r="N81">
+        <v>5.643516</v>
+      </c>
+      <c r="O81">
+        <v>0.5643516000000001</v>
+      </c>
+      <c r="P81">
+        <v>5.0791644</v>
+      </c>
+      <c r="Q81">
+        <v>11.7091644</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.2807459059593561</v>
+      </c>
+      <c r="T81">
+        <v>4.331700058070384</v>
+      </c>
+      <c r="U81">
+        <v>0.02</v>
+      </c>
+      <c r="V81">
+        <v>0.1</v>
+      </c>
+      <c r="W81">
+        <v>0.018</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>8.768259177077542</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.07320174704815155</v>
+      </c>
+      <c r="C82">
+        <v>9.162137831323513</v>
+      </c>
+      <c r="D82">
+        <v>33.74613783132351</v>
+      </c>
+      <c r="E82">
+        <v>32.804</v>
+      </c>
+      <c r="F82">
+        <v>36.784</v>
+      </c>
+      <c r="G82">
+        <v>12.2</v>
+      </c>
+      <c r="H82">
+        <v>42</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>13</v>
+      </c>
+      <c r="K82">
+        <v>6.63</v>
+      </c>
+      <c r="L82">
+        <v>6.37</v>
+      </c>
+      <c r="M82">
+        <v>0.7356799999999999</v>
+      </c>
+      <c r="N82">
+        <v>5.634320000000001</v>
+      </c>
+      <c r="O82">
+        <v>0.563432</v>
+      </c>
+      <c r="P82">
+        <v>5.070888000000001</v>
+      </c>
+      <c r="Q82">
+        <v>11.700888</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2940087352407578</v>
+      </c>
+      <c r="T82">
+        <v>4.54334664071226</v>
+      </c>
+      <c r="U82">
+        <v>0.02</v>
+      </c>
+      <c r="V82">
+        <v>0.1</v>
+      </c>
+      <c r="W82">
+        <v>0.018</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>8.658655937364074</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.07322685384483835</v>
+      </c>
+      <c r="C83">
+        <v>8.698800209004567</v>
+      </c>
+      <c r="D83">
+        <v>33.74260020900456</v>
+      </c>
+      <c r="E83">
+        <v>33.2638</v>
+      </c>
+      <c r="F83">
+        <v>37.2438</v>
+      </c>
+      <c r="G83">
+        <v>12.2</v>
+      </c>
+      <c r="H83">
+        <v>42</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>13</v>
+      </c>
+      <c r="K83">
+        <v>6.63</v>
+      </c>
+      <c r="L83">
+        <v>6.37</v>
+      </c>
+      <c r="M83">
+        <v>0.7448759999999999</v>
+      </c>
+      <c r="N83">
+        <v>5.625124</v>
+      </c>
+      <c r="O83">
+        <v>0.5625124</v>
+      </c>
+      <c r="P83">
+        <v>5.0626116</v>
+      </c>
+      <c r="Q83">
+        <v>11.6926116</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3086676518149388</v>
+      </c>
+      <c r="T83">
+        <v>4.777271811000649</v>
+      </c>
+      <c r="U83">
+        <v>0.02</v>
+      </c>
+      <c r="V83">
+        <v>0.1</v>
+      </c>
+      <c r="W83">
+        <v>0.018</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>8.551758950483034</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.07325196064152513</v>
+      </c>
+      <c r="C84">
+        <v>8.235463328308846</v>
+      </c>
+      <c r="D84">
+        <v>33.73906332830885</v>
+      </c>
+      <c r="E84">
+        <v>33.7236</v>
+      </c>
+      <c r="F84">
+        <v>37.7036</v>
+      </c>
+      <c r="G84">
+        <v>12.2</v>
+      </c>
+      <c r="H84">
+        <v>42</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>13</v>
+      </c>
+      <c r="K84">
+        <v>6.63</v>
+      </c>
+      <c r="L84">
+        <v>6.37</v>
+      </c>
+      <c r="M84">
+        <v>0.754072</v>
+      </c>
+      <c r="N84">
+        <v>5.615928</v>
+      </c>
+      <c r="O84">
+        <v>0.5615928</v>
+      </c>
+      <c r="P84">
+        <v>5.054335200000001</v>
+      </c>
+      <c r="Q84">
+        <v>11.6843352</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3249553368973619</v>
+      </c>
+      <c r="T84">
+        <v>5.037188666876636</v>
+      </c>
+      <c r="U84">
+        <v>0.02</v>
+      </c>
+      <c r="V84">
+        <v>0.1</v>
+      </c>
+      <c r="W84">
+        <v>0.018</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>8.447469207184461</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.07327706743821193</v>
+      </c>
+      <c r="C85">
+        <v>7.772127189003179</v>
+      </c>
+      <c r="D85">
+        <v>33.73552718900318</v>
+      </c>
+      <c r="E85">
+        <v>34.18340000000001</v>
+      </c>
+      <c r="F85">
+        <v>38.1634</v>
+      </c>
+      <c r="G85">
+        <v>12.2</v>
+      </c>
+      <c r="H85">
+        <v>42</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>13</v>
+      </c>
+      <c r="K85">
+        <v>6.63</v>
+      </c>
+      <c r="L85">
+        <v>6.37</v>
+      </c>
+      <c r="M85">
+        <v>0.7632679999999999</v>
+      </c>
+      <c r="N85">
+        <v>5.606732</v>
+      </c>
+      <c r="O85">
+        <v>0.5606732</v>
+      </c>
+      <c r="P85">
+        <v>5.0460588</v>
+      </c>
+      <c r="Q85">
+        <v>11.6760588</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3431592202247762</v>
+      </c>
+      <c r="T85">
+        <v>5.327683976385093</v>
+      </c>
+      <c r="U85">
+        <v>0.02</v>
+      </c>
+      <c r="V85">
+        <v>0.1</v>
+      </c>
+      <c r="W85">
+        <v>0.018</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>8.345692469748503</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.07330217423489872</v>
+      </c>
+      <c r="C86">
+        <v>7.308791790854471</v>
+      </c>
+      <c r="D86">
+        <v>33.73199179085447</v>
+      </c>
+      <c r="E86">
+        <v>34.6432</v>
+      </c>
+      <c r="F86">
+        <v>38.6232</v>
+      </c>
+      <c r="G86">
+        <v>12.2</v>
+      </c>
+      <c r="H86">
+        <v>42</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>13</v>
+      </c>
+      <c r="K86">
+        <v>6.63</v>
+      </c>
+      <c r="L86">
+        <v>6.37</v>
+      </c>
+      <c r="M86">
+        <v>0.7724639999999998</v>
+      </c>
+      <c r="N86">
+        <v>5.597536</v>
+      </c>
+      <c r="O86">
+        <v>0.5597536</v>
+      </c>
+      <c r="P86">
+        <v>5.0377824</v>
+      </c>
+      <c r="Q86">
+        <v>11.6677824</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.363638588968117</v>
+      </c>
+      <c r="T86">
+        <v>5.654491199582104</v>
+      </c>
+      <c r="U86">
+        <v>0.02</v>
+      </c>
+      <c r="V86">
+        <v>0.1</v>
+      </c>
+      <c r="W86">
+        <v>0.018</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>8.246338987965784</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.07332728103158552</v>
+      </c>
+      <c r="C87">
+        <v>6.845457133629722</v>
+      </c>
+      <c r="D87">
+        <v>33.72845713362972</v>
+      </c>
+      <c r="E87">
+        <v>35.103</v>
+      </c>
+      <c r="F87">
+        <v>39.083</v>
+      </c>
+      <c r="G87">
+        <v>12.2</v>
+      </c>
+      <c r="H87">
+        <v>42</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>13</v>
+      </c>
+      <c r="K87">
+        <v>6.63</v>
+      </c>
+      <c r="L87">
+        <v>6.37</v>
+      </c>
+      <c r="M87">
+        <v>0.7816599999999998</v>
+      </c>
+      <c r="N87">
+        <v>5.588340000000001</v>
+      </c>
+      <c r="O87">
+        <v>0.5588340000000001</v>
+      </c>
+      <c r="P87">
+        <v>5.029506</v>
+      </c>
+      <c r="Q87">
+        <v>11.659506</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3868485402105701</v>
+      </c>
+      <c r="T87">
+        <v>6.024872719205386</v>
+      </c>
+      <c r="U87">
+        <v>0.02</v>
+      </c>
+      <c r="V87">
+        <v>0.1</v>
+      </c>
+      <c r="W87">
+        <v>0.018</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>8.149323235166188</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.0733523878282723</v>
+      </c>
+      <c r="C88">
+        <v>6.382123217096066</v>
+      </c>
+      <c r="D88">
+        <v>33.72492321709606</v>
+      </c>
+      <c r="E88">
+        <v>35.5628</v>
+      </c>
+      <c r="F88">
+        <v>39.5428</v>
+      </c>
+      <c r="G88">
+        <v>12.2</v>
+      </c>
+      <c r="H88">
+        <v>42</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>13</v>
+      </c>
+      <c r="K88">
+        <v>6.63</v>
+      </c>
+      <c r="L88">
+        <v>6.37</v>
+      </c>
+      <c r="M88">
+        <v>0.7908559999999999</v>
+      </c>
+      <c r="N88">
+        <v>5.579144</v>
+      </c>
+      <c r="O88">
+        <v>0.5579144</v>
+      </c>
+      <c r="P88">
+        <v>5.0212296</v>
+      </c>
+      <c r="Q88">
+        <v>11.6512296</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4133741987733736</v>
+      </c>
+      <c r="T88">
+        <v>6.448165884489137</v>
+      </c>
+      <c r="U88">
+        <v>0.02</v>
+      </c>
+      <c r="V88">
+        <v>0.1</v>
+      </c>
+      <c r="W88">
+        <v>0.018</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>8.054563662664254</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.0733774946249591</v>
+      </c>
+      <c r="C89">
+        <v>5.918790041020678</v>
+      </c>
+      <c r="D89">
+        <v>33.72139004102068</v>
+      </c>
+      <c r="E89">
+        <v>36.0226</v>
+      </c>
+      <c r="F89">
+        <v>40.00259999999999</v>
+      </c>
+      <c r="G89">
+        <v>12.2</v>
+      </c>
+      <c r="H89">
+        <v>42</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>13</v>
+      </c>
+      <c r="K89">
+        <v>6.63</v>
+      </c>
+      <c r="L89">
+        <v>6.37</v>
+      </c>
+      <c r="M89">
+        <v>0.8000519999999998</v>
+      </c>
+      <c r="N89">
+        <v>5.569948</v>
+      </c>
+      <c r="O89">
+        <v>0.5569948</v>
+      </c>
+      <c r="P89">
+        <v>5.0129532</v>
+      </c>
+      <c r="Q89">
+        <v>11.6429532</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4439807278843008</v>
+      </c>
+      <c r="T89">
+        <v>6.936581075201158</v>
+      </c>
+      <c r="U89">
+        <v>0.02</v>
+      </c>
+      <c r="V89">
+        <v>0.1</v>
+      </c>
+      <c r="W89">
+        <v>0.018</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>7.961982471139378</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.07427380142164589</v>
+      </c>
+      <c r="C90">
+        <v>5.333339633283792</v>
+      </c>
+      <c r="D90">
+        <v>33.59573963328379</v>
+      </c>
+      <c r="E90">
+        <v>36.4824</v>
+      </c>
+      <c r="F90">
+        <v>40.4624</v>
+      </c>
+      <c r="G90">
+        <v>12.2</v>
+      </c>
+      <c r="H90">
+        <v>42</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>13</v>
+      </c>
+      <c r="K90">
+        <v>6.63</v>
+      </c>
+      <c r="L90">
+        <v>6.37</v>
+      </c>
+      <c r="M90">
+        <v>0.85375664</v>
+      </c>
+      <c r="N90">
+        <v>5.51624336</v>
+      </c>
+      <c r="O90">
+        <v>0.551624336</v>
+      </c>
+      <c r="P90">
+        <v>4.964619024</v>
+      </c>
+      <c r="Q90">
+        <v>11.594619024</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4796883451803824</v>
+      </c>
+      <c r="T90">
+        <v>7.506398797698515</v>
+      </c>
+      <c r="U90">
+        <v>0.0211</v>
+      </c>
+      <c r="V90">
+        <v>0.1</v>
+      </c>
+      <c r="W90">
+        <v>0.01899</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>7.461142556970333</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.07430880821833268</v>
+      </c>
+      <c r="C91">
+        <v>4.868651138854837</v>
+      </c>
+      <c r="D91">
+        <v>33.59085113885484</v>
+      </c>
+      <c r="E91">
+        <v>36.9422</v>
+      </c>
+      <c r="F91">
+        <v>40.9222</v>
+      </c>
+      <c r="G91">
+        <v>12.2</v>
+      </c>
+      <c r="H91">
+        <v>42</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>13</v>
+      </c>
+      <c r="K91">
+        <v>6.63</v>
+      </c>
+      <c r="L91">
+        <v>6.37</v>
+      </c>
+      <c r="M91">
+        <v>0.8634584199999999</v>
+      </c>
+      <c r="N91">
+        <v>5.50654158</v>
+      </c>
+      <c r="O91">
+        <v>0.5506541580000001</v>
+      </c>
+      <c r="P91">
+        <v>4.955887422</v>
+      </c>
+      <c r="Q91">
+        <v>11.585887422</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5218882565302971</v>
+      </c>
+      <c r="T91">
+        <v>8.179819742468119</v>
+      </c>
+      <c r="U91">
+        <v>0.0211</v>
+      </c>
+      <c r="V91">
+        <v>0.1</v>
+      </c>
+      <c r="W91">
+        <v>0.01899</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>7.377309494532465</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.07434381501501947</v>
+      </c>
+      <c r="C92">
+        <v>4.403964066862251</v>
+      </c>
+      <c r="D92">
+        <v>33.58596406686225</v>
+      </c>
+      <c r="E92">
+        <v>37.402</v>
+      </c>
+      <c r="F92">
+        <v>41.382</v>
+      </c>
+      <c r="G92">
+        <v>12.2</v>
+      </c>
+      <c r="H92">
+        <v>42</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>13</v>
+      </c>
+      <c r="K92">
+        <v>6.63</v>
+      </c>
+      <c r="L92">
+        <v>6.37</v>
+      </c>
+      <c r="M92">
+        <v>0.8731601999999999</v>
+      </c>
+      <c r="N92">
+        <v>5.4968398</v>
+      </c>
+      <c r="O92">
+        <v>0.5496839800000001</v>
+      </c>
+      <c r="P92">
+        <v>4.94715582</v>
+      </c>
+      <c r="Q92">
+        <v>11.57715582</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5725281501501948</v>
+      </c>
+      <c r="T92">
+        <v>8.987924876191643</v>
+      </c>
+      <c r="U92">
+        <v>0.0211</v>
+      </c>
+      <c r="V92">
+        <v>0.1</v>
+      </c>
+      <c r="W92">
+        <v>0.01899</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>7.295339389037659</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.07437882181170627</v>
+      </c>
+      <c r="C93">
+        <v>3.939278416685291</v>
+      </c>
+      <c r="D93">
+        <v>33.58107841668529</v>
+      </c>
+      <c r="E93">
+        <v>37.8618</v>
+      </c>
+      <c r="F93">
+        <v>41.8418</v>
+      </c>
+      <c r="G93">
+        <v>12.2</v>
+      </c>
+      <c r="H93">
+        <v>42</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>13</v>
+      </c>
+      <c r="K93">
+        <v>6.63</v>
+      </c>
+      <c r="L93">
+        <v>6.37</v>
+      </c>
+      <c r="M93">
+        <v>0.88286198</v>
+      </c>
+      <c r="N93">
+        <v>5.48713802</v>
+      </c>
+      <c r="O93">
+        <v>0.548713802</v>
+      </c>
+      <c r="P93">
+        <v>4.938424218</v>
+      </c>
+      <c r="Q93">
+        <v>11.568424218</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6344213534634032</v>
+      </c>
+      <c r="T93">
+        <v>9.975608928520398</v>
+      </c>
+      <c r="U93">
+        <v>0.0211</v>
+      </c>
+      <c r="V93">
+        <v>0.1</v>
+      </c>
+      <c r="W93">
+        <v>0.01899</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>7.215170824322959</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.07441382860839306</v>
+      </c>
+      <c r="C94">
+        <v>3.474594187703552</v>
+      </c>
+      <c r="D94">
+        <v>33.57619418770355</v>
+      </c>
+      <c r="E94">
+        <v>38.3216</v>
+      </c>
+      <c r="F94">
+        <v>42.3016</v>
+      </c>
+      <c r="G94">
+        <v>12.2</v>
+      </c>
+      <c r="H94">
+        <v>42</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>13</v>
+      </c>
+      <c r="K94">
+        <v>6.63</v>
+      </c>
+      <c r="L94">
+        <v>6.37</v>
+      </c>
+      <c r="M94">
+        <v>0.89256376</v>
+      </c>
+      <c r="N94">
+        <v>5.47743624</v>
+      </c>
+      <c r="O94">
+        <v>0.5477436240000001</v>
+      </c>
+      <c r="P94">
+        <v>4.929692616000001</v>
+      </c>
+      <c r="Q94">
+        <v>11.559692616</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7117878576049136</v>
+      </c>
+      <c r="T94">
+        <v>11.21021399393134</v>
+      </c>
+      <c r="U94">
+        <v>0.0211</v>
+      </c>
+      <c r="V94">
+        <v>0.1</v>
+      </c>
+      <c r="W94">
+        <v>0.01899</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>7.136745054493362</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.07444883540507985</v>
+      </c>
+      <c r="C95">
+        <v>3.009911379297002</v>
+      </c>
+      <c r="D95">
+        <v>33.57131137929701</v>
+      </c>
+      <c r="E95">
+        <v>38.7814</v>
+      </c>
+      <c r="F95">
+        <v>42.7614</v>
+      </c>
+      <c r="G95">
+        <v>12.2</v>
+      </c>
+      <c r="H95">
+        <v>42</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>13</v>
+      </c>
+      <c r="K95">
+        <v>6.63</v>
+      </c>
+      <c r="L95">
+        <v>6.37</v>
+      </c>
+      <c r="M95">
+        <v>0.90226554</v>
+      </c>
+      <c r="N95">
+        <v>5.46773446</v>
+      </c>
+      <c r="O95">
+        <v>0.546773446</v>
+      </c>
+      <c r="P95">
+        <v>4.920961014</v>
+      </c>
+      <c r="Q95">
+        <v>11.550961014</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.811259077215427</v>
+      </c>
+      <c r="T95">
+        <v>12.79756336374541</v>
+      </c>
+      <c r="U95">
+        <v>0.0211</v>
+      </c>
+      <c r="V95">
+        <v>0.1</v>
+      </c>
+      <c r="W95">
+        <v>0.01899</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>7.060005860359024</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.07448384220176663</v>
+      </c>
+      <c r="C96">
+        <v>2.545229990845989</v>
+      </c>
+      <c r="D96">
+        <v>33.566429990846</v>
+      </c>
+      <c r="E96">
+        <v>39.24120000000001</v>
+      </c>
+      <c r="F96">
+        <v>43.2212</v>
+      </c>
+      <c r="G96">
+        <v>12.2</v>
+      </c>
+      <c r="H96">
+        <v>42</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>13</v>
+      </c>
+      <c r="K96">
+        <v>6.63</v>
+      </c>
+      <c r="L96">
+        <v>6.37</v>
+      </c>
+      <c r="M96">
+        <v>0.9119673200000001</v>
+      </c>
+      <c r="N96">
+        <v>5.45803268</v>
+      </c>
+      <c r="O96">
+        <v>0.545803268</v>
+      </c>
+      <c r="P96">
+        <v>4.912229411999999</v>
+      </c>
+      <c r="Q96">
+        <v>11.542229412</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9438873700294448</v>
+      </c>
+      <c r="T96">
+        <v>14.91402919016417</v>
+      </c>
+      <c r="U96">
+        <v>0.0211</v>
+      </c>
+      <c r="V96">
+        <v>0.1</v>
+      </c>
+      <c r="W96">
+        <v>0.01899</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>6.984899415036055</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.07451884899845344</v>
+      </c>
+      <c r="C97">
+        <v>2.080550021731199</v>
+      </c>
+      <c r="D97">
+        <v>33.56155002173119</v>
+      </c>
+      <c r="E97">
+        <v>39.701</v>
+      </c>
+      <c r="F97">
+        <v>43.681</v>
+      </c>
+      <c r="G97">
+        <v>12.2</v>
+      </c>
+      <c r="H97">
+        <v>42</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>13</v>
+      </c>
+      <c r="K97">
+        <v>6.63</v>
+      </c>
+      <c r="L97">
+        <v>6.37</v>
+      </c>
+      <c r="M97">
+        <v>0.9216691</v>
+      </c>
+      <c r="N97">
+        <v>5.4483309</v>
+      </c>
+      <c r="O97">
+        <v>0.54483309</v>
+      </c>
+      <c r="P97">
+        <v>4.90349781</v>
+      </c>
+      <c r="Q97">
+        <v>11.53349781</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.12956697996907</v>
+      </c>
+      <c r="T97">
+        <v>17.87708134715044</v>
+      </c>
+      <c r="U97">
+        <v>0.0211</v>
+      </c>
+      <c r="V97">
+        <v>0.1</v>
+      </c>
+      <c r="W97">
+        <v>0.01899</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>6.911374158035676</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.07455385579514023</v>
+      </c>
+      <c r="C98">
+        <v>1.615871471333662</v>
+      </c>
+      <c r="D98">
+        <v>33.55667147133367</v>
+      </c>
+      <c r="E98">
+        <v>40.1608</v>
+      </c>
+      <c r="F98">
+        <v>44.1408</v>
+      </c>
+      <c r="G98">
+        <v>12.2</v>
+      </c>
+      <c r="H98">
+        <v>42</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>13</v>
+      </c>
+      <c r="K98">
+        <v>6.63</v>
+      </c>
+      <c r="L98">
+        <v>6.37</v>
+      </c>
+      <c r="M98">
+        <v>0.93137088</v>
+      </c>
+      <c r="N98">
+        <v>5.43862912</v>
+      </c>
+      <c r="O98">
+        <v>0.543862912</v>
+      </c>
+      <c r="P98">
+        <v>4.894766208</v>
+      </c>
+      <c r="Q98">
+        <v>11.524766208</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.408086394878505</v>
+      </c>
+      <c r="T98">
+        <v>22.32165958262977</v>
+      </c>
+      <c r="U98">
+        <v>0.0211</v>
+      </c>
+      <c r="V98">
+        <v>0.1</v>
+      </c>
+      <c r="W98">
+        <v>0.01899</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>6.839380677222805</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.07458886259182702</v>
+      </c>
+      <c r="C99">
+        <v>1.151194339034824</v>
+      </c>
+      <c r="D99">
+        <v>33.55179433903481</v>
+      </c>
+      <c r="E99">
+        <v>40.6206</v>
+      </c>
+      <c r="F99">
+        <v>44.60059999999999</v>
+      </c>
+      <c r="G99">
+        <v>12.2</v>
+      </c>
+      <c r="H99">
+        <v>42</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>13</v>
+      </c>
+      <c r="K99">
+        <v>6.63</v>
+      </c>
+      <c r="L99">
+        <v>6.37</v>
+      </c>
+      <c r="M99">
+        <v>0.9410726599999999</v>
+      </c>
+      <c r="N99">
+        <v>5.42892734</v>
+      </c>
+      <c r="O99">
+        <v>0.542892734</v>
+      </c>
+      <c r="P99">
+        <v>4.886034606000001</v>
+      </c>
+      <c r="Q99">
+        <v>11.516034606</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.872285419727566</v>
+      </c>
+      <c r="T99">
+        <v>29.72928997509541</v>
+      </c>
+      <c r="U99">
+        <v>0.0211</v>
+      </c>
+      <c r="V99">
+        <v>0.1</v>
+      </c>
+      <c r="W99">
+        <v>0.01899</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>6.76887159807618</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.07462386938851381</v>
+      </c>
+      <c r="C100">
+        <v>0.6865186242164114</v>
+      </c>
+      <c r="D100">
+        <v>33.54691862421641</v>
+      </c>
+      <c r="E100">
+        <v>41.0804</v>
+      </c>
+      <c r="F100">
+        <v>45.06039999999999</v>
+      </c>
+      <c r="G100">
+        <v>12.2</v>
+      </c>
+      <c r="H100">
+        <v>42</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>13</v>
+      </c>
+      <c r="K100">
+        <v>6.63</v>
+      </c>
+      <c r="L100">
+        <v>6.37</v>
+      </c>
+      <c r="M100">
+        <v>0.9507744399999999</v>
+      </c>
+      <c r="N100">
+        <v>5.41922556</v>
+      </c>
+      <c r="O100">
+        <v>0.5419225560000001</v>
+      </c>
+      <c r="P100">
+        <v>4.877303004</v>
+      </c>
+      <c r="Q100">
+        <v>11.507303004</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.800683469425688</v>
+      </c>
+      <c r="T100">
+        <v>44.54455076002667</v>
+      </c>
+      <c r="U100">
+        <v>0.0211</v>
+      </c>
+      <c r="V100">
+        <v>0.1</v>
+      </c>
+      <c r="W100">
+        <v>0.01899</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>6.699801479728463</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.0746588761852006</v>
+      </c>
+      <c r="C101">
+        <v>0.2218443262605874</v>
+      </c>
+      <c r="D101">
+        <v>33.54204432626058</v>
+      </c>
+      <c r="E101">
+        <v>41.5402</v>
+      </c>
+      <c r="F101">
+        <v>45.5202</v>
+      </c>
+      <c r="G101">
+        <v>12.2</v>
+      </c>
+      <c r="H101">
+        <v>42</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>13</v>
+      </c>
+      <c r="K101">
+        <v>6.63</v>
+      </c>
+      <c r="L101">
+        <v>6.37</v>
+      </c>
+      <c r="M101">
+        <v>0.96047622</v>
+      </c>
+      <c r="N101">
+        <v>5.40952378</v>
+      </c>
+      <c r="O101">
+        <v>0.540952378</v>
+      </c>
+      <c r="P101">
+        <v>4.868571402</v>
+      </c>
+      <c r="Q101">
+        <v>11.498571402</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.585877618520056</v>
+      </c>
+      <c r="T101">
+        <v>88.99033311482047</v>
+      </c>
+      <c r="U101">
+        <v>0.0211</v>
+      </c>
+      <c r="V101">
+        <v>0.1</v>
+      </c>
+      <c r="W101">
+        <v>0.01899</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>6.632126717306963</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
